--- a/TBEA/BusinessPerformance/Documentation/经营数据平台-指标/经营管控平台指标整理.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/经营数据平台-指标/经营管控平台指标整理.xlsx
@@ -823,7 +823,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="993">
   <si>
     <t>利润总额</t>
   </si>
@@ -4649,6 +4649,10 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5449,13 +5453,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5491,82 +5609,76 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5602,15 +5714,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5620,110 +5723,11 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6278,7 +6282,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6305,90 +6309,90 @@
       <c r="U1" s="51"/>
     </row>
     <row r="2" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="145" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="148" t="s">
         <v>394</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110" t="s">
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148" t="s">
         <v>395</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
     </row>
     <row r="3" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="149" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="150" t="s">
         <v>397</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="116" t="s">
+      <c r="D3" s="151"/>
+      <c r="E3" s="154" t="s">
         <v>398</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="154" t="s">
         <v>399</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="154" t="s">
         <v>400</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="154" t="s">
         <v>401</v>
       </c>
-      <c r="I3" s="111" t="s">
+      <c r="I3" s="149" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="111" t="s">
+      <c r="J3" s="149" t="s">
         <v>403</v>
       </c>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="149" t="s">
         <v>404</v>
       </c>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="135" t="s">
         <v>405</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="104" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="135" t="s">
         <v>406</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="104" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="135" t="s">
         <v>407</v>
       </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="106"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="136"/>
     </row>
     <row r="4" spans="2:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="111"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
       <c r="L4" s="62" t="s">
         <v>27</v>
       </c>
@@ -6421,13 +6425,13 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="122"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="13" t="s">
         <v>38</v>
       </c>
@@ -6481,7 +6485,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="119"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="58" t="s">
         <v>408</v>
       </c>
@@ -6505,7 +6509,7 @@
       <c r="U6" s="13"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="120"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="58" t="s">
         <v>409</v>
       </c>
@@ -6529,13 +6533,13 @@
       <c r="U7" s="13"/>
     </row>
     <row r="8" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="126"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6548,7 +6552,9 @@
       <c r="H8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>992</v>
+      </c>
       <c r="J8" s="13" t="s">
         <v>40</v>
       </c>
@@ -6587,8 +6593,8 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B9" s="124"/>
-      <c r="C9" s="127" t="s">
+      <c r="B9" s="123"/>
+      <c r="C9" s="137" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="66" t="s">
@@ -6641,8 +6647,8 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B10" s="124"/>
-      <c r="C10" s="128"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="60" t="s">
         <v>420</v>
       </c>
@@ -6667,8 +6673,8 @@
       <c r="U10" s="13"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B11" s="124"/>
-      <c r="C11" s="128"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="60" t="s">
         <v>421</v>
       </c>
@@ -6693,8 +6699,8 @@
       <c r="U11" s="13"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B12" s="124"/>
-      <c r="C12" s="128"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="66" t="s">
         <v>422</v>
       </c>
@@ -6735,8 +6741,8 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B13" s="124"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="66" t="s">
         <v>423</v>
       </c>
@@ -6776,8 +6782,8 @@
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B14" s="124"/>
-      <c r="C14" s="130" t="s">
+      <c r="B14" s="123"/>
+      <c r="C14" s="140" t="s">
         <v>424</v>
       </c>
       <c r="D14" s="66" t="s">
@@ -6832,8 +6838,8 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B15" s="124"/>
-      <c r="C15" s="131"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="141"/>
       <c r="D15" s="66" t="s">
         <v>422</v>
       </c>
@@ -6874,8 +6880,8 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B16" s="124"/>
-      <c r="C16" s="132"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="66" t="s">
         <v>423</v>
       </c>
@@ -6918,11 +6924,11 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B17" s="124"/>
-      <c r="C17" s="125" t="s">
+      <c r="B17" s="123"/>
+      <c r="C17" s="129" t="s">
         <v>427</v>
       </c>
-      <c r="D17" s="126"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="13" t="s">
         <v>412</v>
       </c>
@@ -6948,8 +6954,8 @@
       <c r="U17" s="13"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B18" s="124"/>
-      <c r="C18" s="123" t="s">
+      <c r="B18" s="123"/>
+      <c r="C18" s="122" t="s">
         <v>428</v>
       </c>
       <c r="D18" s="66" t="s">
@@ -6998,8 +7004,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="66" t="s">
         <v>422</v>
       </c>
@@ -7038,8 +7044,8 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B20" s="124"/>
-      <c r="C20" s="133"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="66" t="s">
         <v>423</v>
       </c>
@@ -7078,11 +7084,11 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B21" s="124"/>
-      <c r="C21" s="125" t="s">
+      <c r="B21" s="123"/>
+      <c r="C21" s="129" t="s">
         <v>430</v>
       </c>
-      <c r="D21" s="126"/>
+      <c r="D21" s="130"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
@@ -7108,11 +7114,11 @@
       <c r="W21" s="52"/>
     </row>
     <row r="22" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="124"/>
-      <c r="C22" s="125" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="129" t="s">
         <v>431</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="130"/>
       <c r="E22" s="13" t="s">
         <v>412</v>
       </c>
@@ -7149,10 +7155,10 @@
       <c r="B23" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D23" s="122"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
         <v>14</v>
@@ -7188,13 +7194,13 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D24" s="122"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="13" t="s">
         <v>412</v>
       </c>
@@ -7250,7 +7256,7 @@
       <c r="W24" s="52"/>
     </row>
     <row r="25" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="119"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="5" t="s">
         <v>433</v>
       </c>
@@ -7276,7 +7282,7 @@
       <c r="W25" s="52"/>
     </row>
     <row r="26" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="120"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="5" t="s">
         <v>434</v>
       </c>
@@ -7302,13 +7308,13 @@
       <c r="W26" s="52"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D27" s="122"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="13" t="s">
         <v>412</v>
       </c>
@@ -7364,11 +7370,11 @@
       <c r="W27" s="52"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B28" s="135"/>
-      <c r="C28" s="136" t="s">
+      <c r="B28" s="119"/>
+      <c r="C28" s="131" t="s">
         <v>435</v>
       </c>
-      <c r="D28" s="137"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="13" t="s">
         <v>412</v>
       </c>
@@ -7421,10 +7427,10 @@
       <c r="B29" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="129" t="s">
         <v>411</v>
       </c>
-      <c r="D29" s="126"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="13" t="s">
         <v>412</v>
       </c>
@@ -7468,13 +7474,13 @@
       <c r="W29" s="52"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B30" s="134" t="s">
+      <c r="B30" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="129" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="126"/>
+      <c r="D30" s="130"/>
       <c r="E30" s="13" t="s">
         <v>412</v>
       </c>
@@ -7530,11 +7536,11 @@
       <c r="W30" s="52"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B31" s="138"/>
-      <c r="C31" s="136" t="s">
+      <c r="B31" s="118"/>
+      <c r="C31" s="131" t="s">
         <v>436</v>
       </c>
-      <c r="D31" s="137"/>
+      <c r="D31" s="132"/>
       <c r="E31" s="13" t="s">
         <v>412</v>
       </c>
@@ -7576,11 +7582,11 @@
       <c r="W31" s="52"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B32" s="138"/>
-      <c r="C32" s="125" t="s">
+      <c r="B32" s="118"/>
+      <c r="C32" s="129" t="s">
         <v>437</v>
       </c>
-      <c r="D32" s="126"/>
+      <c r="D32" s="130"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -7604,11 +7610,11 @@
       <c r="W32" s="52"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B33" s="138"/>
-      <c r="C33" s="125" t="s">
+      <c r="B33" s="118"/>
+      <c r="C33" s="129" t="s">
         <v>438</v>
       </c>
-      <c r="D33" s="126"/>
+      <c r="D33" s="130"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -7632,11 +7638,11 @@
       <c r="W33" s="52"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B34" s="138"/>
-      <c r="C34" s="121" t="s">
+      <c r="B34" s="118"/>
+      <c r="C34" s="115" t="s">
         <v>439</v>
       </c>
-      <c r="D34" s="122"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -7660,11 +7666,11 @@
       <c r="W34" s="52"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B35" s="135"/>
-      <c r="C35" s="121" t="s">
+      <c r="B35" s="119"/>
+      <c r="C35" s="115" t="s">
         <v>440</v>
       </c>
-      <c r="D35" s="122"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -7716,13 +7722,13 @@
       <c r="W36" s="52"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B37" s="134" t="s">
+      <c r="B37" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C37" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D37" s="122"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="13" t="s">
         <v>412</v>
       </c>
@@ -7768,8 +7774,8 @@
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B38" s="138"/>
-      <c r="C38" s="134" t="s">
+      <c r="B38" s="118"/>
+      <c r="C38" s="117" t="s">
         <v>442</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -7814,8 +7820,8 @@
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="11" t="s">
         <v>443</v>
       </c>
@@ -7853,8 +7859,8 @@
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B40" s="138"/>
-      <c r="C40" s="135"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="119"/>
       <c r="D40" s="11" t="s">
         <v>444</v>
       </c>
@@ -7895,8 +7901,8 @@
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B41" s="138"/>
-      <c r="C41" s="134" t="s">
+      <c r="B41" s="118"/>
+      <c r="C41" s="117" t="s">
         <v>445</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -7937,8 +7943,8 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="11" t="s">
         <v>443</v>
       </c>
@@ -7977,8 +7983,8 @@
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B43" s="138"/>
-      <c r="C43" s="135"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="119"/>
       <c r="D43" s="11" t="s">
         <v>444</v>
       </c>
@@ -8017,11 +8023,11 @@
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B44" s="138"/>
-      <c r="C44" s="121" t="s">
+      <c r="B44" s="118"/>
+      <c r="C44" s="115" t="s">
         <v>446</v>
       </c>
-      <c r="D44" s="122"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="13" t="s">
         <v>412</v>
       </c>
@@ -8060,8 +8066,8 @@
       <c r="B45" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="106"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="136"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -8081,13 +8087,13 @@
       <c r="U45" s="13"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="121" t="s">
+      <c r="C46" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D46" s="122"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="13" t="s">
         <v>412</v>
       </c>
@@ -8131,7 +8137,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="119"/>
+      <c r="B47" s="127"/>
       <c r="C47" s="5" t="s">
         <v>433</v>
       </c>
@@ -8155,7 +8161,7 @@
       <c r="U47" s="13"/>
     </row>
     <row r="48" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="120"/>
+      <c r="B48" s="128"/>
       <c r="C48" s="5" t="s">
         <v>434</v>
       </c>
@@ -8182,10 +8188,10 @@
       <c r="B49" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="121" t="s">
+      <c r="C49" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D49" s="122"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="13" t="s">
         <v>412</v>
       </c>
@@ -8232,10 +8238,10 @@
       <c r="B50" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="121" t="s">
+      <c r="C50" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D50" s="122"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="13" t="s">
         <v>412</v>
       </c>
@@ -8292,10 +8298,10 @@
       <c r="B51" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="121" t="s">
+      <c r="C51" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D51" s="122"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="13" t="s">
         <v>412</v>
       </c>
@@ -8352,10 +8358,10 @@
       <c r="B52" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="121" t="s">
+      <c r="C52" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D52" s="122"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="13" t="s">
         <v>412</v>
       </c>
@@ -8412,10 +8418,10 @@
       <c r="B53" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="121" t="s">
+      <c r="C53" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D53" s="122"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="13" t="s">
         <v>412</v>
       </c>
@@ -8472,10 +8478,10 @@
       <c r="B54" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="121" t="s">
+      <c r="C54" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D54" s="122"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="13" t="s">
         <v>412</v>
       </c>
@@ -8532,10 +8538,10 @@
       <c r="B55" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="121" t="s">
+      <c r="C55" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D55" s="122"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="13" t="s">
         <v>412</v>
       </c>
@@ -8589,7 +8595,7 @@
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B56" s="118" t="s">
+      <c r="B56" s="126" t="s">
         <v>448</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -8623,11 +8629,11 @@
       <c r="U56" s="13"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B57" s="119"/>
-      <c r="C57" s="125" t="s">
+      <c r="B57" s="127"/>
+      <c r="C57" s="129" t="s">
         <v>449</v>
       </c>
-      <c r="D57" s="126"/>
+      <c r="D57" s="130"/>
       <c r="E57" s="13" t="s">
         <v>412</v>
       </c>
@@ -8657,11 +8663,11 @@
       <c r="U57" s="13"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B58" s="119"/>
-      <c r="C58" s="136" t="s">
+      <c r="B58" s="127"/>
+      <c r="C58" s="131" t="s">
         <v>450</v>
       </c>
-      <c r="D58" s="137"/>
+      <c r="D58" s="132"/>
       <c r="E58" s="13" t="s">
         <v>412</v>
       </c>
@@ -8691,11 +8697,11 @@
       </c>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B59" s="119"/>
-      <c r="C59" s="136" t="s">
+      <c r="B59" s="127"/>
+      <c r="C59" s="131" t="s">
         <v>451</v>
       </c>
-      <c r="D59" s="137"/>
+      <c r="D59" s="132"/>
       <c r="E59" s="13" t="s">
         <v>412</v>
       </c>
@@ -8725,11 +8731,11 @@
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B60" s="119"/>
-      <c r="C60" s="125" t="s">
+      <c r="B60" s="127"/>
+      <c r="C60" s="129" t="s">
         <v>452</v>
       </c>
-      <c r="D60" s="126"/>
+      <c r="D60" s="130"/>
       <c r="E60" s="13" t="s">
         <v>412</v>
       </c>
@@ -8753,11 +8759,11 @@
       <c r="U60" s="13"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B61" s="119"/>
-      <c r="C61" s="125" t="s">
+      <c r="B61" s="127"/>
+      <c r="C61" s="129" t="s">
         <v>453</v>
       </c>
-      <c r="D61" s="126"/>
+      <c r="D61" s="130"/>
       <c r="E61" s="13" t="s">
         <v>412</v>
       </c>
@@ -8783,11 +8789,11 @@
       <c r="U61" s="13"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B62" s="119"/>
-      <c r="C62" s="125" t="s">
+      <c r="B62" s="127"/>
+      <c r="C62" s="129" t="s">
         <v>454</v>
       </c>
-      <c r="D62" s="126"/>
+      <c r="D62" s="130"/>
       <c r="E62" s="13" t="s">
         <v>412</v>
       </c>
@@ -8819,11 +8825,11 @@
       <c r="U62" s="13"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B63" s="119"/>
-      <c r="C63" s="121" t="s">
+      <c r="B63" s="127"/>
+      <c r="C63" s="115" t="s">
         <v>455</v>
       </c>
-      <c r="D63" s="122"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="13" t="s">
         <v>412</v>
       </c>
@@ -8849,8 +8855,8 @@
       <c r="U63" s="13"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B64" s="119"/>
-      <c r="C64" s="140" t="s">
+      <c r="B64" s="127"/>
+      <c r="C64" s="134" t="s">
         <v>456</v>
       </c>
       <c r="D64" s="9" t="s">
@@ -8881,8 +8887,8 @@
       <c r="U64" s="13"/>
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B65" s="119"/>
-      <c r="C65" s="140"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="134"/>
       <c r="D65" s="11" t="s">
         <v>457</v>
       </c>
@@ -8909,8 +8915,8 @@
       <c r="U65" s="13"/>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B66" s="119"/>
-      <c r="C66" s="140"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="134"/>
       <c r="D66" s="11" t="s">
         <v>458</v>
       </c>
@@ -8937,11 +8943,11 @@
       <c r="U66" s="13"/>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B67" s="119"/>
-      <c r="C67" s="121" t="s">
+      <c r="B67" s="127"/>
+      <c r="C67" s="115" t="s">
         <v>459</v>
       </c>
-      <c r="D67" s="122"/>
+      <c r="D67" s="116"/>
       <c r="E67" s="103" t="s">
         <v>412</v>
       </c>
@@ -8965,11 +8971,11 @@
       <c r="U67" s="13"/>
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B68" s="119"/>
-      <c r="C68" s="121" t="s">
+      <c r="B68" s="127"/>
+      <c r="C68" s="115" t="s">
         <v>460</v>
       </c>
-      <c r="D68" s="122"/>
+      <c r="D68" s="116"/>
       <c r="E68" s="103" t="s">
         <v>412</v>
       </c>
@@ -8993,20 +8999,20 @@
       <c r="U68" s="13"/>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B69" s="119"/>
-      <c r="C69" s="180" t="s">
+      <c r="B69" s="127"/>
+      <c r="C69" s="124" t="s">
         <v>461</v>
       </c>
-      <c r="D69" s="181"/>
+      <c r="D69" s="125"/>
       <c r="E69" s="103" t="s">
         <v>412</v>
       </c>
-      <c r="F69" s="182"/>
-      <c r="G69" s="182"/>
-      <c r="H69" s="182"/>
-      <c r="I69" s="182"/>
-      <c r="J69" s="182"/>
-      <c r="K69" s="182" t="s">
+      <c r="F69" s="104"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104" t="s">
         <v>26</v>
       </c>
       <c r="L69" s="13"/>
@@ -9021,20 +9027,20 @@
       <c r="U69" s="13"/>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B70" s="119"/>
-      <c r="C70" s="180" t="s">
+      <c r="B70" s="127"/>
+      <c r="C70" s="124" t="s">
         <v>462</v>
       </c>
-      <c r="D70" s="181"/>
+      <c r="D70" s="125"/>
       <c r="E70" s="103" t="s">
         <v>412</v>
       </c>
-      <c r="F70" s="182"/>
-      <c r="G70" s="182"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="182"/>
-      <c r="J70" s="182"/>
-      <c r="K70" s="182" t="s">
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="104"/>
+      <c r="K70" s="104" t="s">
         <v>26</v>
       </c>
       <c r="L70" s="13"/>
@@ -9049,11 +9055,11 @@
       <c r="U70" s="13"/>
     </row>
     <row r="71" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="119"/>
-      <c r="C71" s="121" t="s">
+      <c r="B71" s="127"/>
+      <c r="C71" s="115" t="s">
         <v>463</v>
       </c>
-      <c r="D71" s="122"/>
+      <c r="D71" s="116"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
@@ -9075,11 +9081,11 @@
       <c r="U71" s="13"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B72" s="119"/>
-      <c r="C72" s="121" t="s">
+      <c r="B72" s="127"/>
+      <c r="C72" s="115" t="s">
         <v>464</v>
       </c>
-      <c r="D72" s="122"/>
+      <c r="D72" s="116"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
@@ -9101,11 +9107,11 @@
       <c r="U72" s="13"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B73" s="119"/>
-      <c r="C73" s="121" t="s">
+      <c r="B73" s="127"/>
+      <c r="C73" s="115" t="s">
         <v>465</v>
       </c>
-      <c r="D73" s="122"/>
+      <c r="D73" s="116"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
@@ -9127,8 +9133,8 @@
       <c r="U73" s="13"/>
     </row>
     <row r="74" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="119"/>
-      <c r="C74" s="139" t="s">
+      <c r="B74" s="127"/>
+      <c r="C74" s="133" t="s">
         <v>466</v>
       </c>
       <c r="D74" s="9" t="s">
@@ -9157,8 +9163,8 @@
       <c r="U74" s="13"/>
     </row>
     <row r="75" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B75" s="119"/>
-      <c r="C75" s="139"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="133"/>
       <c r="D75" s="11" t="s">
         <v>467</v>
       </c>
@@ -9185,8 +9191,8 @@
       <c r="U75" s="13"/>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B76" s="119"/>
-      <c r="C76" s="139"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="133"/>
       <c r="D76" s="11" t="s">
         <v>468</v>
       </c>
@@ -9213,11 +9219,11 @@
       <c r="U76" s="13"/>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B77" s="119"/>
-      <c r="C77" s="121" t="s">
+      <c r="B77" s="127"/>
+      <c r="C77" s="115" t="s">
         <v>469</v>
       </c>
-      <c r="D77" s="122"/>
+      <c r="D77" s="116"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="13" t="s">
@@ -9241,11 +9247,11 @@
       <c r="U77" s="13"/>
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B78" s="120"/>
-      <c r="C78" s="121" t="s">
+      <c r="B78" s="128"/>
+      <c r="C78" s="115" t="s">
         <v>470</v>
       </c>
-      <c r="D78" s="122"/>
+      <c r="D78" s="116"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="13" t="s">
@@ -9269,13 +9275,13 @@
       <c r="U78" s="13"/>
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B79" s="123" t="s">
+      <c r="B79" s="122" t="s">
         <v>471</v>
       </c>
-      <c r="C79" s="121" t="s">
+      <c r="C79" s="115" t="s">
         <v>411</v>
       </c>
-      <c r="D79" s="122"/>
+      <c r="D79" s="116"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13" t="s">
@@ -9303,11 +9309,11 @@
       <c r="U79" s="13"/>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B80" s="124"/>
-      <c r="C80" s="121" t="s">
+      <c r="B80" s="123"/>
+      <c r="C80" s="115" t="s">
         <v>472</v>
       </c>
-      <c r="D80" s="122"/>
+      <c r="D80" s="116"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -9331,11 +9337,11 @@
       <c r="U80" s="13"/>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B81" s="124"/>
-      <c r="C81" s="121" t="s">
+      <c r="B81" s="123"/>
+      <c r="C81" s="115" t="s">
         <v>473</v>
       </c>
-      <c r="D81" s="122"/>
+      <c r="D81" s="116"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
@@ -9359,11 +9365,11 @@
       <c r="U81" s="13"/>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B82" s="124"/>
-      <c r="C82" s="121" t="s">
+      <c r="B82" s="123"/>
+      <c r="C82" s="115" t="s">
         <v>455</v>
       </c>
-      <c r="D82" s="122"/>
+      <c r="D82" s="116"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
@@ -9387,11 +9393,11 @@
       <c r="U82" s="13"/>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B83" s="124"/>
-      <c r="C83" s="121" t="s">
+      <c r="B83" s="123"/>
+      <c r="C83" s="115" t="s">
         <v>475</v>
       </c>
-      <c r="D83" s="122"/>
+      <c r="D83" s="116"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
@@ -9415,11 +9421,11 @@
       <c r="U83" s="13"/>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B84" s="124"/>
-      <c r="C84" s="121" t="s">
+      <c r="B84" s="123"/>
+      <c r="C84" s="115" t="s">
         <v>477</v>
       </c>
-      <c r="D84" s="122"/>
+      <c r="D84" s="116"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
@@ -9443,8 +9449,8 @@
       <c r="U84" s="13"/>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B85" s="124"/>
-      <c r="C85" s="134" t="s">
+      <c r="B85" s="123"/>
+      <c r="C85" s="117" t="s">
         <v>479</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -9473,8 +9479,8 @@
       <c r="U85" s="13"/>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B86" s="124"/>
-      <c r="C86" s="138"/>
+      <c r="B86" s="123"/>
+      <c r="C86" s="118"/>
       <c r="D86" s="11" t="s">
         <v>19</v>
       </c>
@@ -9501,8 +9507,8 @@
       <c r="U86" s="13"/>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B87" s="124"/>
-      <c r="C87" s="138"/>
+      <c r="B87" s="123"/>
+      <c r="C87" s="118"/>
       <c r="D87" s="11" t="s">
         <v>16</v>
       </c>
@@ -9529,8 +9535,8 @@
       <c r="U87" s="13"/>
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B88" s="124"/>
-      <c r="C88" s="138"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="118"/>
       <c r="D88" s="11" t="s">
         <v>17</v>
       </c>
@@ -9557,8 +9563,8 @@
       <c r="U88" s="13"/>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B89" s="124"/>
-      <c r="C89" s="135"/>
+      <c r="B89" s="123"/>
+      <c r="C89" s="119"/>
       <c r="D89" s="11" t="s">
         <v>18</v>
       </c>
@@ -9585,8 +9591,8 @@
       <c r="U89" s="13"/>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B90" s="124"/>
-      <c r="C90" s="134" t="s">
+      <c r="B90" s="123"/>
+      <c r="C90" s="117" t="s">
         <v>481</v>
       </c>
       <c r="D90" s="11" t="s">
@@ -9615,8 +9621,8 @@
       <c r="U90" s="13"/>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B91" s="124"/>
-      <c r="C91" s="138"/>
+      <c r="B91" s="123"/>
+      <c r="C91" s="118"/>
       <c r="D91" s="11" t="s">
         <v>19</v>
       </c>
@@ -9643,8 +9649,8 @@
       <c r="U91" s="13"/>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B92" s="124"/>
-      <c r="C92" s="138"/>
+      <c r="B92" s="123"/>
+      <c r="C92" s="118"/>
       <c r="D92" s="11" t="s">
         <v>16</v>
       </c>
@@ -9671,8 +9677,8 @@
       <c r="U92" s="13"/>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B93" s="124"/>
-      <c r="C93" s="138"/>
+      <c r="B93" s="123"/>
+      <c r="C93" s="118"/>
       <c r="D93" s="11" t="s">
         <v>17</v>
       </c>
@@ -9699,8 +9705,8 @@
       <c r="U93" s="13"/>
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B94" s="124"/>
-      <c r="C94" s="135"/>
+      <c r="B94" s="123"/>
+      <c r="C94" s="119"/>
       <c r="D94" s="11" t="s">
         <v>482</v>
       </c>
@@ -9749,13 +9755,13 @@
       <c r="U95" s="13"/>
     </row>
     <row r="96" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="142" t="s">
+      <c r="B96" s="120" t="s">
         <v>483</v>
       </c>
-      <c r="C96" s="142" t="s">
+      <c r="C96" s="120" t="s">
         <v>484</v>
       </c>
-      <c r="D96" s="142"/>
+      <c r="D96" s="120"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -9777,11 +9783,11 @@
       <c r="U96" s="13"/>
     </row>
     <row r="97" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B97" s="142"/>
-      <c r="C97" s="143" t="s">
+      <c r="B97" s="120"/>
+      <c r="C97" s="121" t="s">
         <v>485</v>
       </c>
-      <c r="D97" s="143"/>
+      <c r="D97" s="121"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -9803,11 +9809,11 @@
       <c r="U97" s="13"/>
     </row>
     <row r="98" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B98" s="142"/>
-      <c r="C98" s="142" t="s">
+      <c r="B98" s="120"/>
+      <c r="C98" s="120" t="s">
         <v>486</v>
       </c>
-      <c r="D98" s="142"/>
+      <c r="D98" s="120"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -9829,11 +9835,11 @@
       <c r="U98" s="13"/>
     </row>
     <row r="99" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B99" s="142"/>
-      <c r="C99" s="142" t="s">
+      <c r="B99" s="120"/>
+      <c r="C99" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="D99" s="142"/>
+      <c r="D99" s="120"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -9855,11 +9861,11 @@
       <c r="U99" s="13"/>
     </row>
     <row r="100" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B100" s="142"/>
-      <c r="C100" s="142" t="s">
+      <c r="B100" s="120"/>
+      <c r="C100" s="120" t="s">
         <v>488</v>
       </c>
-      <c r="D100" s="142"/>
+      <c r="D100" s="120"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -9881,11 +9887,11 @@
       <c r="U100" s="13"/>
     </row>
     <row r="101" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B101" s="142"/>
-      <c r="C101" s="142" t="s">
+      <c r="B101" s="120"/>
+      <c r="C101" s="120" t="s">
         <v>489</v>
       </c>
-      <c r="D101" s="142"/>
+      <c r="D101" s="120"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -9908,8 +9914,8 @@
     </row>
     <row r="102" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B102" s="32"/>
-      <c r="C102" s="141"/>
-      <c r="D102" s="141"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -9934,29 +9940,57 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="B79:B94"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
@@ -9973,57 +10007,29 @@
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B8:B22"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B79:B94"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10083,31 +10089,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:93" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="33"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
       <c r="AD2" s="35"/>
       <c r="AE2" s="35"/>
       <c r="AG2" s="35"/>
@@ -10124,130 +10130,130 @@
       <c r="AR2" s="35"/>
     </row>
     <row r="3" spans="2:93" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="153" t="s">
+      <c r="D3" s="186"/>
+      <c r="E3" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="155" t="s">
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="158" t="s">
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="191" t="s">
         <v>490</v>
       </c>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="158" t="s">
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="191" t="s">
         <v>491</v>
       </c>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="166" t="s">
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="192"/>
+      <c r="AD3" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="166"/>
-      <c r="AG3" s="166"/>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="166"/>
-      <c r="AJ3" s="166"/>
-      <c r="AK3" s="166"/>
-      <c r="AL3" s="166"/>
-      <c r="AM3" s="166"/>
-      <c r="AN3" s="166"/>
-      <c r="AO3" s="166"/>
-      <c r="AP3" s="166"/>
-      <c r="AQ3" s="166"/>
-      <c r="AR3" s="166"/>
-      <c r="AS3" s="166"/>
-      <c r="AT3" s="155" t="s">
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="174"/>
+      <c r="AR3" s="174"/>
+      <c r="AS3" s="174"/>
+      <c r="AT3" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="AU3" s="156"/>
-      <c r="AV3" s="156"/>
-      <c r="AW3" s="156"/>
-      <c r="AX3" s="156"/>
-      <c r="AY3" s="156"/>
-      <c r="AZ3" s="156"/>
-      <c r="BA3" s="156"/>
-      <c r="BB3" s="156"/>
-      <c r="BC3" s="156"/>
-      <c r="BD3" s="156"/>
-      <c r="BE3" s="156"/>
-      <c r="BF3" s="156"/>
-      <c r="BG3" s="156"/>
-      <c r="BH3" s="157"/>
-      <c r="BI3" s="164" t="s">
+      <c r="AU3" s="176"/>
+      <c r="AV3" s="176"/>
+      <c r="AW3" s="176"/>
+      <c r="AX3" s="176"/>
+      <c r="AY3" s="176"/>
+      <c r="AZ3" s="176"/>
+      <c r="BA3" s="176"/>
+      <c r="BB3" s="176"/>
+      <c r="BC3" s="176"/>
+      <c r="BD3" s="176"/>
+      <c r="BE3" s="176"/>
+      <c r="BF3" s="176"/>
+      <c r="BG3" s="176"/>
+      <c r="BH3" s="177"/>
+      <c r="BI3" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="BJ3" s="164"/>
-      <c r="BK3" s="164"/>
-      <c r="BL3" s="164"/>
-      <c r="BM3" s="164"/>
-      <c r="BN3" s="164"/>
-      <c r="BO3" s="164"/>
-      <c r="BP3" s="164"/>
-      <c r="BQ3" s="164"/>
-      <c r="BR3" s="164"/>
-      <c r="BS3" s="164"/>
-      <c r="BT3" s="164"/>
-      <c r="BU3" s="164"/>
-      <c r="BV3" s="164" t="s">
+      <c r="BJ3" s="173"/>
+      <c r="BK3" s="173"/>
+      <c r="BL3" s="173"/>
+      <c r="BM3" s="173"/>
+      <c r="BN3" s="173"/>
+      <c r="BO3" s="173"/>
+      <c r="BP3" s="173"/>
+      <c r="BQ3" s="173"/>
+      <c r="BR3" s="173"/>
+      <c r="BS3" s="173"/>
+      <c r="BT3" s="173"/>
+      <c r="BU3" s="173"/>
+      <c r="BV3" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="BW3" s="164"/>
-      <c r="BX3" s="164"/>
-      <c r="BY3" s="164"/>
-      <c r="BZ3" s="164"/>
-      <c r="CA3" s="164"/>
-      <c r="CB3" s="164" t="s">
+      <c r="BW3" s="173"/>
+      <c r="BX3" s="173"/>
+      <c r="BY3" s="173"/>
+      <c r="BZ3" s="173"/>
+      <c r="CA3" s="173"/>
+      <c r="CB3" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="CC3" s="164"/>
-      <c r="CD3" s="164"/>
-      <c r="CE3" s="164"/>
-      <c r="CF3" s="164"/>
-      <c r="CG3" s="164"/>
-      <c r="CH3" s="164"/>
-      <c r="CI3" s="164"/>
-      <c r="CJ3" s="164"/>
-      <c r="CK3" s="164"/>
-      <c r="CL3" s="164" t="s">
+      <c r="CC3" s="173"/>
+      <c r="CD3" s="173"/>
+      <c r="CE3" s="173"/>
+      <c r="CF3" s="173"/>
+      <c r="CG3" s="173"/>
+      <c r="CH3" s="173"/>
+      <c r="CI3" s="173"/>
+      <c r="CJ3" s="173"/>
+      <c r="CK3" s="173"/>
+      <c r="CL3" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="CM3" s="164"/>
-      <c r="CN3" s="164"/>
-      <c r="CO3" s="164"/>
+      <c r="CM3" s="173"/>
+      <c r="CN3" s="173"/>
+      <c r="CO3" s="173"/>
     </row>
     <row r="4" spans="2:93" s="34" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="148"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="154"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="190"/>
       <c r="F4" s="37" t="s">
         <v>492</v>
       </c>
@@ -10514,13 +10520,13 @@
       </c>
     </row>
     <row r="5" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="161"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="13" t="s">
         <v>38</v>
       </c>
@@ -10782,7 +10788,7 @@
       </c>
     </row>
     <row r="6" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="124"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="43" t="s">
         <v>408</v>
       </c>
@@ -10878,7 +10884,7 @@
       <c r="CO6" s="13"/>
     </row>
     <row r="7" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="124"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="43" t="s">
         <v>409</v>
       </c>
@@ -10974,11 +10980,11 @@
       <c r="CO7" s="13"/>
     </row>
     <row r="8" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="124"/>
-      <c r="C8" s="141" t="s">
+      <c r="B8" s="123"/>
+      <c r="C8" s="114" t="s">
         <v>550</v>
       </c>
-      <c r="D8" s="165"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="9"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -11070,7 +11076,7 @@
       <c r="CO8" s="9"/>
     </row>
     <row r="9" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B9" s="133"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="43" t="s">
         <v>551</v>
       </c>
@@ -11168,13 +11174,13 @@
       <c r="CO9" s="9"/>
     </row>
     <row r="10" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="160"/>
       <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
@@ -11432,8 +11438,8 @@
       </c>
     </row>
     <row r="11" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="162"/>
-      <c r="C11" s="127" t="s">
+      <c r="B11" s="168"/>
+      <c r="C11" s="137" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="102" t="s">
@@ -11593,8 +11599,8 @@
       </c>
     </row>
     <row r="12" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="162"/>
-      <c r="C12" s="128"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="46" t="s">
         <v>44</v>
       </c>
@@ -11691,8 +11697,8 @@
       <c r="CO12" s="13"/>
     </row>
     <row r="13" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="162"/>
-      <c r="C13" s="128"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="46" t="s">
         <v>45</v>
       </c>
@@ -11789,8 +11795,8 @@
       <c r="CO13" s="13"/>
     </row>
     <row r="14" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="162"/>
-      <c r="C14" s="128"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="102" t="s">
         <v>46</v>
       </c>
@@ -11945,8 +11951,8 @@
       </c>
     </row>
     <row r="15" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="162"/>
-      <c r="C15" s="129"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="139"/>
       <c r="D15" s="102" t="s">
         <v>47</v>
       </c>
@@ -12071,8 +12077,8 @@
       <c r="CO15" s="13"/>
     </row>
     <row r="16" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="162"/>
-      <c r="C16" s="130" t="s">
+      <c r="B16" s="168"/>
+      <c r="C16" s="140" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="46" t="s">
@@ -12205,8 +12211,8 @@
       </c>
     </row>
     <row r="17" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="162"/>
-      <c r="C17" s="131"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="141"/>
       <c r="D17" s="102" t="s">
         <v>46</v>
       </c>
@@ -12334,8 +12340,8 @@
       </c>
     </row>
     <row r="18" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="162"/>
-      <c r="C18" s="132"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="102" t="s">
         <v>47</v>
       </c>
@@ -12450,11 +12456,11 @@
       <c r="CO18" s="13"/>
     </row>
     <row r="19" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="162"/>
-      <c r="C19" s="125" t="s">
+      <c r="B19" s="168"/>
+      <c r="C19" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="161"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="13" t="s">
         <v>38</v>
       </c>
@@ -12550,8 +12556,8 @@
       <c r="CO19" s="13"/>
     </row>
     <row r="20" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="162"/>
-      <c r="C20" s="123" t="s">
+      <c r="B20" s="168"/>
+      <c r="C20" s="122" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="46" t="s">
@@ -12664,8 +12670,8 @@
       <c r="CO20" s="13"/>
     </row>
     <row r="21" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="162"/>
-      <c r="C21" s="124"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="46" t="s">
         <v>46</v>
       </c>
@@ -12770,8 +12776,8 @@
       <c r="CO21" s="13"/>
     </row>
     <row r="22" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="162"/>
-      <c r="C22" s="133"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="46" t="s">
         <v>47</v>
       </c>
@@ -12876,11 +12882,11 @@
       <c r="CO22" s="13"/>
     </row>
     <row r="23" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="162"/>
-      <c r="C23" s="125" t="s">
+      <c r="B23" s="168"/>
+      <c r="C23" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="161"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="13"/>
       <c r="F23" s="3" t="s">
         <v>492</v>
@@ -12978,11 +12984,11 @@
       <c r="CO23" s="13"/>
     </row>
     <row r="24" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="162"/>
-      <c r="C24" s="125" t="s">
+      <c r="B24" s="168"/>
+      <c r="C24" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="161"/>
+      <c r="D24" s="160"/>
       <c r="E24" s="13" t="s">
         <v>38</v>
       </c>
@@ -13102,7 +13108,7 @@
       <c r="CO24" s="13"/>
     </row>
     <row r="25" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B25" s="162"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="43" t="s">
         <v>552</v>
       </c>
@@ -13200,7 +13206,7 @@
       <c r="CO25" s="9"/>
     </row>
     <row r="26" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B26" s="162"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="43" t="s">
         <v>553</v>
       </c>
@@ -13298,7 +13304,7 @@
       <c r="CO26" s="9"/>
     </row>
     <row r="27" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B27" s="162"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="43" t="s">
         <v>554</v>
       </c>
@@ -13396,7 +13402,7 @@
       <c r="CO27" s="9"/>
     </row>
     <row r="28" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B28" s="162"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="43" t="s">
         <v>555</v>
       </c>
@@ -13494,7 +13500,7 @@
       <c r="CO28" s="9"/>
     </row>
     <row r="29" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B29" s="162"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="43" t="s">
         <v>556</v>
       </c>
@@ -13599,7 +13605,7 @@
       <c r="CO29" s="9"/>
     </row>
     <row r="30" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B30" s="162"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="43" t="s">
         <v>557</v>
       </c>
@@ -13697,7 +13703,7 @@
       <c r="CO30" s="9"/>
     </row>
     <row r="31" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B31" s="162"/>
+      <c r="B31" s="168"/>
       <c r="C31" s="12" t="s">
         <v>558</v>
       </c>
@@ -13798,10 +13804,10 @@
       <c r="B32" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="161"/>
+      <c r="D32" s="160"/>
       <c r="E32" s="13"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -13985,13 +13991,13 @@
       </c>
     </row>
     <row r="33" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="162" t="s">
+      <c r="B33" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="161"/>
+      <c r="D33" s="160"/>
       <c r="E33" s="13" t="s">
         <v>38</v>
       </c>
@@ -14181,7 +14187,7 @@
       <c r="CO33" s="13"/>
     </row>
     <row r="34" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="162"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="43" t="s">
         <v>408</v>
       </c>
@@ -14277,7 +14283,7 @@
       <c r="CO34" s="13"/>
     </row>
     <row r="35" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="162"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="43" t="s">
         <v>409</v>
       </c>
@@ -14373,13 +14379,13 @@
       <c r="CO35" s="13"/>
     </row>
     <row r="36" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="125" t="s">
+      <c r="C36" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="161"/>
+      <c r="D36" s="160"/>
       <c r="E36" s="13" t="s">
         <v>38</v>
       </c>
@@ -14635,11 +14641,11 @@
       </c>
     </row>
     <row r="37" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="133"/>
-      <c r="C37" s="136" t="s">
+      <c r="B37" s="143"/>
+      <c r="C37" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="163"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="13" t="s">
         <v>38</v>
       </c>
@@ -14876,10 +14882,10 @@
       <c r="B38" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="161"/>
+      <c r="D38" s="160"/>
       <c r="E38" s="13" t="s">
         <v>38</v>
       </c>
@@ -15025,13 +15031,13 @@
       <c r="CO38" s="13"/>
     </row>
     <row r="39" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="143" t="s">
+      <c r="B39" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="143" t="s">
+      <c r="C39" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="125"/>
+      <c r="D39" s="129"/>
       <c r="E39" s="13" t="s">
         <v>38</v>
       </c>
@@ -15257,11 +15263,11 @@
       </c>
     </row>
     <row r="40" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="143"/>
-      <c r="C40" s="167" t="s">
+      <c r="B40" s="121"/>
+      <c r="C40" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="136"/>
+      <c r="D40" s="131"/>
       <c r="E40" s="13" t="s">
         <v>38</v>
       </c>
@@ -15423,7 +15429,7 @@
       </c>
     </row>
     <row r="41" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B41" s="143"/>
+      <c r="B41" s="121"/>
       <c r="C41" s="66" t="s">
         <v>561</v>
       </c>
@@ -15531,11 +15537,11 @@
       <c r="CO41" s="9"/>
     </row>
     <row r="42" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="143"/>
-      <c r="C42" s="143" t="s">
+      <c r="B42" s="121"/>
+      <c r="C42" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="125"/>
+      <c r="D42" s="129"/>
       <c r="E42" s="13"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -15631,11 +15637,11 @@
       <c r="CO42" s="13"/>
     </row>
     <row r="43" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="143"/>
-      <c r="C43" s="143" t="s">
+      <c r="B43" s="121"/>
+      <c r="C43" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="125"/>
+      <c r="D43" s="129"/>
       <c r="E43" s="13"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -15733,11 +15739,11 @@
       <c r="CO43" s="13"/>
     </row>
     <row r="44" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="143"/>
-      <c r="C44" s="143" t="s">
+      <c r="B44" s="121"/>
+      <c r="C44" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="125"/>
+      <c r="D44" s="129"/>
       <c r="E44" s="13"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -15831,11 +15837,11 @@
       <c r="CO44" s="13"/>
     </row>
     <row r="45" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="143"/>
-      <c r="C45" s="143" t="s">
+      <c r="B45" s="121"/>
+      <c r="C45" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="125"/>
+      <c r="D45" s="129"/>
       <c r="E45" s="13"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -15929,11 +15935,11 @@
       <c r="CO45" s="13"/>
     </row>
     <row r="46" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B46" s="143"/>
-      <c r="C46" s="141" t="s">
+      <c r="B46" s="121"/>
+      <c r="C46" s="114" t="s">
         <v>562</v>
       </c>
-      <c r="D46" s="168"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="9"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -16027,11 +16033,11 @@
       <c r="CO46" s="9"/>
     </row>
     <row r="47" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B47" s="143"/>
-      <c r="C47" s="141" t="s">
+      <c r="B47" s="121"/>
+      <c r="C47" s="114" t="s">
         <v>563</v>
       </c>
-      <c r="D47" s="168"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="9"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -16125,11 +16131,11 @@
       <c r="CO47" s="9"/>
     </row>
     <row r="48" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B48" s="143"/>
-      <c r="C48" s="141" t="s">
+      <c r="B48" s="121"/>
+      <c r="C48" s="114" t="s">
         <v>564</v>
       </c>
-      <c r="D48" s="168"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="9"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -16223,11 +16229,11 @@
       <c r="CO48" s="9"/>
     </row>
     <row r="49" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B49" s="143"/>
-      <c r="C49" s="141" t="s">
+      <c r="B49" s="121"/>
+      <c r="C49" s="114" t="s">
         <v>565</v>
       </c>
-      <c r="D49" s="168"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="9"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
@@ -16321,11 +16327,11 @@
       <c r="CO49" s="9"/>
     </row>
     <row r="50" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B50" s="143"/>
-      <c r="C50" s="141" t="s">
+      <c r="B50" s="121"/>
+      <c r="C50" s="114" t="s">
         <v>566</v>
       </c>
-      <c r="D50" s="168"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="9"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -16523,13 +16529,13 @@
       <c r="CO51" s="13"/>
     </row>
     <row r="52" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="125" t="s">
+      <c r="C52" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="161"/>
+      <c r="D52" s="160"/>
       <c r="E52" s="13" t="s">
         <v>38</v>
       </c>
@@ -16739,8 +16745,8 @@
       </c>
     </row>
     <row r="53" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="124"/>
-      <c r="C53" s="123" t="s">
+      <c r="B53" s="123"/>
+      <c r="C53" s="122" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="43" t="s">
@@ -16905,8 +16911,8 @@
       <c r="CO53" s="13"/>
     </row>
     <row r="54" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="124"/>
-      <c r="C54" s="124"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="43" t="s">
         <v>62</v>
       </c>
@@ -17067,8 +17073,8 @@
       <c r="CO54" s="13"/>
     </row>
     <row r="55" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="124"/>
-      <c r="C55" s="133"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="143"/>
       <c r="D55" s="43" t="s">
         <v>63</v>
       </c>
@@ -17229,8 +17235,8 @@
       <c r="CO55" s="13"/>
     </row>
     <row r="56" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="124"/>
-      <c r="C56" s="123" t="s">
+      <c r="B56" s="123"/>
+      <c r="C56" s="122" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="43" t="s">
@@ -17417,8 +17423,8 @@
       </c>
     </row>
     <row r="57" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="124"/>
-      <c r="C57" s="124"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="43" t="s">
         <v>62</v>
       </c>
@@ -17603,8 +17609,8 @@
       </c>
     </row>
     <row r="58" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="124"/>
-      <c r="C58" s="133"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="143"/>
       <c r="D58" s="43" t="s">
         <v>63</v>
       </c>
@@ -17781,11 +17787,11 @@
       </c>
     </row>
     <row r="59" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="124"/>
-      <c r="C59" s="125" t="s">
+      <c r="B59" s="123"/>
+      <c r="C59" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="161"/>
+      <c r="D59" s="160"/>
       <c r="E59" s="13" t="s">
         <v>38</v>
       </c>
@@ -17942,8 +17948,8 @@
       <c r="B60" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="169"/>
-      <c r="D60" s="170"/>
+      <c r="C60" s="171"/>
+      <c r="D60" s="172"/>
       <c r="E60" s="9"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
@@ -18035,13 +18041,13 @@
       <c r="CO60" s="13"/>
     </row>
     <row r="61" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="125" t="s">
+      <c r="C61" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="161"/>
+      <c r="D61" s="160"/>
       <c r="E61" s="13" t="s">
         <v>38</v>
       </c>
@@ -18251,7 +18257,7 @@
       </c>
     </row>
     <row r="62" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="124"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="43" t="s">
         <v>408</v>
       </c>
@@ -18347,7 +18353,7 @@
       <c r="CO62" s="13"/>
     </row>
     <row r="63" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="133"/>
+      <c r="B63" s="143"/>
       <c r="C63" s="43" t="s">
         <v>409</v>
       </c>
@@ -18446,10 +18452,10 @@
       <c r="B64" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="125" t="s">
+      <c r="C64" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="161"/>
+      <c r="D64" s="160"/>
       <c r="E64" s="13" t="s">
         <v>38</v>
       </c>
@@ -18620,10 +18626,10 @@
       <c r="B65" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="125" t="s">
+      <c r="C65" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="161"/>
+      <c r="D65" s="160"/>
       <c r="E65" s="13" t="s">
         <v>38</v>
       </c>
@@ -18892,10 +18898,10 @@
       <c r="B66" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="125" t="s">
+      <c r="C66" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="161"/>
+      <c r="D66" s="160"/>
       <c r="E66" s="13" t="s">
         <v>38</v>
       </c>
@@ -19160,10 +19166,10 @@
       <c r="B67" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="125" t="s">
+      <c r="C67" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="161"/>
+      <c r="D67" s="160"/>
       <c r="E67" s="13" t="s">
         <v>38</v>
       </c>
@@ -19428,10 +19434,10 @@
       <c r="B68" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="125" t="s">
+      <c r="C68" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="161"/>
+      <c r="D68" s="160"/>
       <c r="E68" s="13" t="s">
         <v>38</v>
       </c>
@@ -19700,10 +19706,10 @@
       <c r="B69" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="125" t="s">
+      <c r="C69" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D69" s="161"/>
+      <c r="D69" s="160"/>
       <c r="E69" s="13" t="s">
         <v>38</v>
       </c>
@@ -19972,10 +19978,10 @@
       <c r="B70" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="125" t="s">
+      <c r="C70" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="161"/>
+      <c r="D70" s="160"/>
       <c r="E70" s="13" t="s">
         <v>38</v>
       </c>
@@ -20237,7 +20243,7 @@
       </c>
     </row>
     <row r="71" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="172" t="s">
+      <c r="B71" s="156" t="s">
         <v>67</v>
       </c>
       <c r="C71" s="43" t="s">
@@ -20351,11 +20357,11 @@
       <c r="CO71" s="13"/>
     </row>
     <row r="72" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="173"/>
-      <c r="C72" s="125" t="s">
+      <c r="B72" s="157"/>
+      <c r="C72" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="161"/>
+      <c r="D72" s="160"/>
       <c r="E72" s="13" t="s">
         <v>38</v>
       </c>
@@ -20463,11 +20469,11 @@
       </c>
     </row>
     <row r="73" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="173"/>
-      <c r="C73" s="136" t="s">
+      <c r="B73" s="157"/>
+      <c r="C73" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="163"/>
+      <c r="D73" s="170"/>
       <c r="E73" s="13" t="s">
         <v>38</v>
       </c>
@@ -20577,11 +20583,11 @@
       <c r="CO73" s="13"/>
     </row>
     <row r="74" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="173"/>
-      <c r="C74" s="136" t="s">
+      <c r="B74" s="157"/>
+      <c r="C74" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="163"/>
+      <c r="D74" s="170"/>
       <c r="E74" s="13" t="s">
         <v>38</v>
       </c>
@@ -20691,11 +20697,11 @@
       <c r="CO74" s="13"/>
     </row>
     <row r="75" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="173"/>
-      <c r="C75" s="125" t="s">
+      <c r="B75" s="157"/>
+      <c r="C75" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="161"/>
+      <c r="D75" s="160"/>
       <c r="E75" s="13" t="s">
         <v>38</v>
       </c>
@@ -20795,11 +20801,11 @@
       <c r="CO75" s="13"/>
     </row>
     <row r="76" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="173"/>
-      <c r="C76" s="125" t="s">
+      <c r="B76" s="157"/>
+      <c r="C76" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="161"/>
+      <c r="D76" s="160"/>
       <c r="E76" s="13" t="s">
         <v>38</v>
       </c>
@@ -20895,11 +20901,11 @@
       <c r="CO76" s="13"/>
     </row>
     <row r="77" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="173"/>
-      <c r="C77" s="125" t="s">
+      <c r="B77" s="157"/>
+      <c r="C77" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="161"/>
+      <c r="D77" s="160"/>
       <c r="E77" s="13" t="s">
         <v>38</v>
       </c>
@@ -20999,11 +21005,11 @@
       <c r="CO77" s="13"/>
     </row>
     <row r="78" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="173"/>
-      <c r="C78" s="125" t="s">
+      <c r="B78" s="157"/>
+      <c r="C78" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="161"/>
+      <c r="D78" s="160"/>
       <c r="E78" s="13" t="s">
         <v>38</v>
       </c>
@@ -21099,8 +21105,8 @@
       <c r="CO78" s="13"/>
     </row>
     <row r="79" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="173"/>
-      <c r="C79" s="171" t="s">
+      <c r="B79" s="157"/>
+      <c r="C79" s="169" t="s">
         <v>75</v>
       </c>
       <c r="D79" s="46" t="s">
@@ -21203,8 +21209,8 @@
       <c r="CO79" s="13"/>
     </row>
     <row r="80" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="173"/>
-      <c r="C80" s="171"/>
+      <c r="B80" s="157"/>
+      <c r="C80" s="169"/>
       <c r="D80" s="43" t="s">
         <v>76</v>
       </c>
@@ -21301,8 +21307,8 @@
       <c r="CO80" s="13"/>
     </row>
     <row r="81" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="173"/>
-      <c r="C81" s="171"/>
+      <c r="B81" s="157"/>
+      <c r="C81" s="169"/>
       <c r="D81" s="43" t="s">
         <v>77</v>
       </c>
@@ -21398,302 +21404,302 @@
       <c r="CN81" s="13"/>
       <c r="CO81" s="13"/>
     </row>
-    <row r="82" spans="2:93" s="187" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="173"/>
-      <c r="C82" s="188" t="s">
+    <row r="82" spans="2:93" s="109" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="157"/>
+      <c r="C82" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="189"/>
-      <c r="E82" s="190" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" s="183"/>
-      <c r="G82" s="183"/>
-      <c r="H82" s="183"/>
-      <c r="I82" s="183"/>
-      <c r="J82" s="183"/>
-      <c r="K82" s="183"/>
-      <c r="L82" s="183"/>
-      <c r="M82" s="183"/>
-      <c r="N82" s="183"/>
-      <c r="O82" s="184"/>
-      <c r="P82" s="184"/>
-      <c r="Q82" s="184"/>
-      <c r="R82" s="184"/>
-      <c r="S82" s="184"/>
-      <c r="T82" s="184"/>
-      <c r="U82" s="184"/>
-      <c r="V82" s="184"/>
-      <c r="W82" s="185"/>
-      <c r="X82" s="185"/>
-      <c r="Y82" s="185"/>
-      <c r="Z82" s="185"/>
-      <c r="AA82" s="185"/>
-      <c r="AB82" s="185"/>
-      <c r="AC82" s="185"/>
-      <c r="AD82" s="184"/>
-      <c r="AE82" s="184"/>
-      <c r="AF82" s="185"/>
-      <c r="AG82" s="184"/>
-      <c r="AH82" s="184"/>
-      <c r="AI82" s="184"/>
-      <c r="AJ82" s="184"/>
-      <c r="AK82" s="184"/>
-      <c r="AL82" s="184"/>
-      <c r="AM82" s="184"/>
-      <c r="AN82" s="184"/>
-      <c r="AO82" s="184"/>
-      <c r="AP82" s="186"/>
-      <c r="AQ82" s="186"/>
-      <c r="AR82" s="186"/>
-      <c r="AS82" s="183"/>
-      <c r="AT82" s="184"/>
-      <c r="AU82" s="184"/>
-      <c r="AV82" s="184"/>
-      <c r="AW82" s="184"/>
-      <c r="AX82" s="184"/>
-      <c r="AY82" s="184"/>
-      <c r="AZ82" s="184"/>
-      <c r="BA82" s="184"/>
-      <c r="BB82" s="184"/>
-      <c r="BC82" s="186"/>
-      <c r="BD82" s="186"/>
-      <c r="BE82" s="186"/>
-      <c r="BF82" s="186"/>
-      <c r="BG82" s="186"/>
-      <c r="BH82" s="186"/>
-      <c r="BI82" s="186"/>
-      <c r="BJ82" s="186"/>
-      <c r="BK82" s="186"/>
-      <c r="BL82" s="186"/>
-      <c r="BM82" s="186"/>
-      <c r="BN82" s="186"/>
-      <c r="BO82" s="186"/>
-      <c r="BP82" s="186"/>
-      <c r="BQ82" s="186"/>
-      <c r="BR82" s="186"/>
-      <c r="BS82" s="186"/>
-      <c r="BT82" s="186"/>
-      <c r="BU82" s="186"/>
-      <c r="BV82" s="186"/>
-      <c r="BW82" s="186"/>
-      <c r="BX82" s="186"/>
-      <c r="BY82" s="186"/>
-      <c r="BZ82" s="186"/>
-      <c r="CA82" s="186"/>
-      <c r="CB82" s="186"/>
-      <c r="CC82" s="186"/>
-      <c r="CD82" s="186"/>
-      <c r="CE82" s="186"/>
-      <c r="CF82" s="186"/>
-      <c r="CG82" s="186"/>
-      <c r="CH82" s="186"/>
-      <c r="CI82" s="186"/>
-      <c r="CJ82" s="186"/>
-      <c r="CK82" s="186"/>
-      <c r="CL82" s="186"/>
-      <c r="CM82" s="186"/>
-      <c r="CN82" s="186"/>
-      <c r="CO82" s="186"/>
-    </row>
-    <row r="83" spans="2:93" s="187" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="173"/>
-      <c r="C83" s="188" t="s">
+      <c r="D82" s="179"/>
+      <c r="E82" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105"/>
+      <c r="J82" s="105"/>
+      <c r="K82" s="105"/>
+      <c r="L82" s="105"/>
+      <c r="M82" s="105"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="106"/>
+      <c r="P82" s="106"/>
+      <c r="Q82" s="106"/>
+      <c r="R82" s="106"/>
+      <c r="S82" s="106"/>
+      <c r="T82" s="106"/>
+      <c r="U82" s="106"/>
+      <c r="V82" s="106"/>
+      <c r="W82" s="107"/>
+      <c r="X82" s="107"/>
+      <c r="Y82" s="107"/>
+      <c r="Z82" s="107"/>
+      <c r="AA82" s="107"/>
+      <c r="AB82" s="107"/>
+      <c r="AC82" s="107"/>
+      <c r="AD82" s="106"/>
+      <c r="AE82" s="106"/>
+      <c r="AF82" s="107"/>
+      <c r="AG82" s="106"/>
+      <c r="AH82" s="106"/>
+      <c r="AI82" s="106"/>
+      <c r="AJ82" s="106"/>
+      <c r="AK82" s="106"/>
+      <c r="AL82" s="106"/>
+      <c r="AM82" s="106"/>
+      <c r="AN82" s="106"/>
+      <c r="AO82" s="106"/>
+      <c r="AP82" s="108"/>
+      <c r="AQ82" s="108"/>
+      <c r="AR82" s="108"/>
+      <c r="AS82" s="105"/>
+      <c r="AT82" s="106"/>
+      <c r="AU82" s="106"/>
+      <c r="AV82" s="106"/>
+      <c r="AW82" s="106"/>
+      <c r="AX82" s="106"/>
+      <c r="AY82" s="106"/>
+      <c r="AZ82" s="106"/>
+      <c r="BA82" s="106"/>
+      <c r="BB82" s="106"/>
+      <c r="BC82" s="108"/>
+      <c r="BD82" s="108"/>
+      <c r="BE82" s="108"/>
+      <c r="BF82" s="108"/>
+      <c r="BG82" s="108"/>
+      <c r="BH82" s="108"/>
+      <c r="BI82" s="108"/>
+      <c r="BJ82" s="108"/>
+      <c r="BK82" s="108"/>
+      <c r="BL82" s="108"/>
+      <c r="BM82" s="108"/>
+      <c r="BN82" s="108"/>
+      <c r="BO82" s="108"/>
+      <c r="BP82" s="108"/>
+      <c r="BQ82" s="108"/>
+      <c r="BR82" s="108"/>
+      <c r="BS82" s="108"/>
+      <c r="BT82" s="108"/>
+      <c r="BU82" s="108"/>
+      <c r="BV82" s="108"/>
+      <c r="BW82" s="108"/>
+      <c r="BX82" s="108"/>
+      <c r="BY82" s="108"/>
+      <c r="BZ82" s="108"/>
+      <c r="CA82" s="108"/>
+      <c r="CB82" s="108"/>
+      <c r="CC82" s="108"/>
+      <c r="CD82" s="108"/>
+      <c r="CE82" s="108"/>
+      <c r="CF82" s="108"/>
+      <c r="CG82" s="108"/>
+      <c r="CH82" s="108"/>
+      <c r="CI82" s="108"/>
+      <c r="CJ82" s="108"/>
+      <c r="CK82" s="108"/>
+      <c r="CL82" s="108"/>
+      <c r="CM82" s="108"/>
+      <c r="CN82" s="108"/>
+      <c r="CO82" s="108"/>
+    </row>
+    <row r="83" spans="2:93" s="109" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="157"/>
+      <c r="C83" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="189"/>
-      <c r="E83" s="190" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" s="183"/>
-      <c r="G83" s="183"/>
-      <c r="H83" s="183"/>
-      <c r="I83" s="183"/>
-      <c r="J83" s="183"/>
-      <c r="K83" s="183"/>
-      <c r="L83" s="183"/>
-      <c r="M83" s="183"/>
-      <c r="N83" s="183"/>
-      <c r="O83" s="184"/>
-      <c r="P83" s="184"/>
-      <c r="Q83" s="184"/>
-      <c r="R83" s="184"/>
-      <c r="S83" s="184"/>
-      <c r="T83" s="184"/>
-      <c r="U83" s="184"/>
-      <c r="V83" s="184"/>
-      <c r="W83" s="185"/>
-      <c r="X83" s="185"/>
-      <c r="Y83" s="185"/>
-      <c r="Z83" s="185"/>
-      <c r="AA83" s="185"/>
-      <c r="AB83" s="185"/>
-      <c r="AC83" s="185"/>
-      <c r="AD83" s="184"/>
-      <c r="AE83" s="184"/>
-      <c r="AF83" s="185"/>
-      <c r="AG83" s="184"/>
-      <c r="AH83" s="184"/>
-      <c r="AI83" s="184"/>
-      <c r="AJ83" s="184"/>
-      <c r="AK83" s="184"/>
-      <c r="AL83" s="184"/>
-      <c r="AM83" s="184"/>
-      <c r="AN83" s="184"/>
-      <c r="AO83" s="184"/>
-      <c r="AP83" s="186"/>
-      <c r="AQ83" s="186"/>
-      <c r="AR83" s="186"/>
-      <c r="AS83" s="183"/>
-      <c r="AT83" s="184"/>
-      <c r="AU83" s="184"/>
-      <c r="AV83" s="184"/>
-      <c r="AW83" s="184"/>
-      <c r="AX83" s="184"/>
-      <c r="AY83" s="184"/>
-      <c r="AZ83" s="184"/>
-      <c r="BA83" s="184"/>
-      <c r="BB83" s="184"/>
-      <c r="BC83" s="186"/>
-      <c r="BD83" s="186"/>
-      <c r="BE83" s="186"/>
-      <c r="BF83" s="186"/>
-      <c r="BG83" s="186"/>
-      <c r="BH83" s="186"/>
-      <c r="BI83" s="186"/>
-      <c r="BJ83" s="186"/>
-      <c r="BK83" s="186"/>
-      <c r="BL83" s="186"/>
-      <c r="BM83" s="186"/>
-      <c r="BN83" s="186"/>
-      <c r="BO83" s="186"/>
-      <c r="BP83" s="186"/>
-      <c r="BQ83" s="186"/>
-      <c r="BR83" s="186"/>
-      <c r="BS83" s="186"/>
-      <c r="BT83" s="186"/>
-      <c r="BU83" s="186"/>
-      <c r="BV83" s="186"/>
-      <c r="BW83" s="186"/>
-      <c r="BX83" s="186"/>
-      <c r="BY83" s="186"/>
-      <c r="BZ83" s="186"/>
-      <c r="CA83" s="186"/>
-      <c r="CB83" s="186"/>
-      <c r="CC83" s="186"/>
-      <c r="CD83" s="186"/>
-      <c r="CE83" s="186"/>
-      <c r="CF83" s="186"/>
-      <c r="CG83" s="186"/>
-      <c r="CH83" s="186"/>
-      <c r="CI83" s="186"/>
-      <c r="CJ83" s="186"/>
-      <c r="CK83" s="186"/>
-      <c r="CL83" s="186"/>
-      <c r="CM83" s="186"/>
-      <c r="CN83" s="186"/>
-      <c r="CO83" s="186"/>
-    </row>
-    <row r="84" spans="2:93" s="187" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="173"/>
-      <c r="C84" s="188" t="s">
+      <c r="D83" s="179"/>
+      <c r="E83" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="105"/>
+      <c r="K83" s="105"/>
+      <c r="L83" s="105"/>
+      <c r="M83" s="105"/>
+      <c r="N83" s="105"/>
+      <c r="O83" s="106"/>
+      <c r="P83" s="106"/>
+      <c r="Q83" s="106"/>
+      <c r="R83" s="106"/>
+      <c r="S83" s="106"/>
+      <c r="T83" s="106"/>
+      <c r="U83" s="106"/>
+      <c r="V83" s="106"/>
+      <c r="W83" s="107"/>
+      <c r="X83" s="107"/>
+      <c r="Y83" s="107"/>
+      <c r="Z83" s="107"/>
+      <c r="AA83" s="107"/>
+      <c r="AB83" s="107"/>
+      <c r="AC83" s="107"/>
+      <c r="AD83" s="106"/>
+      <c r="AE83" s="106"/>
+      <c r="AF83" s="107"/>
+      <c r="AG83" s="106"/>
+      <c r="AH83" s="106"/>
+      <c r="AI83" s="106"/>
+      <c r="AJ83" s="106"/>
+      <c r="AK83" s="106"/>
+      <c r="AL83" s="106"/>
+      <c r="AM83" s="106"/>
+      <c r="AN83" s="106"/>
+      <c r="AO83" s="106"/>
+      <c r="AP83" s="108"/>
+      <c r="AQ83" s="108"/>
+      <c r="AR83" s="108"/>
+      <c r="AS83" s="105"/>
+      <c r="AT83" s="106"/>
+      <c r="AU83" s="106"/>
+      <c r="AV83" s="106"/>
+      <c r="AW83" s="106"/>
+      <c r="AX83" s="106"/>
+      <c r="AY83" s="106"/>
+      <c r="AZ83" s="106"/>
+      <c r="BA83" s="106"/>
+      <c r="BB83" s="106"/>
+      <c r="BC83" s="108"/>
+      <c r="BD83" s="108"/>
+      <c r="BE83" s="108"/>
+      <c r="BF83" s="108"/>
+      <c r="BG83" s="108"/>
+      <c r="BH83" s="108"/>
+      <c r="BI83" s="108"/>
+      <c r="BJ83" s="108"/>
+      <c r="BK83" s="108"/>
+      <c r="BL83" s="108"/>
+      <c r="BM83" s="108"/>
+      <c r="BN83" s="108"/>
+      <c r="BO83" s="108"/>
+      <c r="BP83" s="108"/>
+      <c r="BQ83" s="108"/>
+      <c r="BR83" s="108"/>
+      <c r="BS83" s="108"/>
+      <c r="BT83" s="108"/>
+      <c r="BU83" s="108"/>
+      <c r="BV83" s="108"/>
+      <c r="BW83" s="108"/>
+      <c r="BX83" s="108"/>
+      <c r="BY83" s="108"/>
+      <c r="BZ83" s="108"/>
+      <c r="CA83" s="108"/>
+      <c r="CB83" s="108"/>
+      <c r="CC83" s="108"/>
+      <c r="CD83" s="108"/>
+      <c r="CE83" s="108"/>
+      <c r="CF83" s="108"/>
+      <c r="CG83" s="108"/>
+      <c r="CH83" s="108"/>
+      <c r="CI83" s="108"/>
+      <c r="CJ83" s="108"/>
+      <c r="CK83" s="108"/>
+      <c r="CL83" s="108"/>
+      <c r="CM83" s="108"/>
+      <c r="CN83" s="108"/>
+      <c r="CO83" s="108"/>
+    </row>
+    <row r="84" spans="2:93" s="109" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="157"/>
+      <c r="C84" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="189"/>
-      <c r="E84" s="190" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="183"/>
-      <c r="G84" s="183"/>
-      <c r="H84" s="183"/>
-      <c r="I84" s="183"/>
-      <c r="J84" s="183"/>
-      <c r="K84" s="183"/>
-      <c r="L84" s="183"/>
-      <c r="M84" s="183"/>
-      <c r="N84" s="183"/>
-      <c r="O84" s="184"/>
-      <c r="P84" s="184"/>
-      <c r="Q84" s="184"/>
-      <c r="R84" s="184"/>
-      <c r="S84" s="184"/>
-      <c r="T84" s="184"/>
-      <c r="U84" s="184"/>
-      <c r="V84" s="184"/>
-      <c r="W84" s="185"/>
-      <c r="X84" s="185"/>
-      <c r="Y84" s="185"/>
-      <c r="Z84" s="185"/>
-      <c r="AA84" s="185"/>
-      <c r="AB84" s="185"/>
-      <c r="AC84" s="185"/>
-      <c r="AD84" s="184"/>
-      <c r="AE84" s="184"/>
-      <c r="AF84" s="185"/>
-      <c r="AG84" s="184"/>
-      <c r="AH84" s="184"/>
-      <c r="AI84" s="184"/>
-      <c r="AJ84" s="184"/>
-      <c r="AK84" s="184"/>
-      <c r="AL84" s="184"/>
-      <c r="AM84" s="184"/>
-      <c r="AN84" s="184"/>
-      <c r="AO84" s="184"/>
-      <c r="AP84" s="186"/>
-      <c r="AQ84" s="186"/>
-      <c r="AR84" s="186"/>
-      <c r="AS84" s="183"/>
-      <c r="AT84" s="184"/>
-      <c r="AU84" s="184"/>
-      <c r="AV84" s="184"/>
-      <c r="AW84" s="184"/>
-      <c r="AX84" s="184"/>
-      <c r="AY84" s="184"/>
-      <c r="AZ84" s="184"/>
-      <c r="BA84" s="184"/>
-      <c r="BB84" s="184"/>
-      <c r="BC84" s="186"/>
-      <c r="BD84" s="186"/>
-      <c r="BE84" s="186"/>
-      <c r="BF84" s="186"/>
-      <c r="BG84" s="186"/>
-      <c r="BH84" s="186"/>
-      <c r="BI84" s="186"/>
-      <c r="BJ84" s="186"/>
-      <c r="BK84" s="186"/>
-      <c r="BL84" s="186"/>
-      <c r="BM84" s="186"/>
-      <c r="BN84" s="186"/>
-      <c r="BO84" s="186"/>
-      <c r="BP84" s="186"/>
-      <c r="BQ84" s="186"/>
-      <c r="BR84" s="186"/>
-      <c r="BS84" s="186"/>
-      <c r="BT84" s="186"/>
-      <c r="BU84" s="186"/>
-      <c r="BV84" s="186"/>
-      <c r="BW84" s="186"/>
-      <c r="BX84" s="186"/>
-      <c r="BY84" s="186"/>
-      <c r="BZ84" s="186"/>
-      <c r="CA84" s="186"/>
-      <c r="CB84" s="186"/>
-      <c r="CC84" s="186"/>
-      <c r="CD84" s="186"/>
-      <c r="CE84" s="186"/>
-      <c r="CF84" s="186"/>
-      <c r="CG84" s="186"/>
-      <c r="CH84" s="186"/>
-      <c r="CI84" s="186"/>
-      <c r="CJ84" s="186"/>
-      <c r="CK84" s="186"/>
-      <c r="CL84" s="186"/>
-      <c r="CM84" s="186"/>
-      <c r="CN84" s="186"/>
-      <c r="CO84" s="186"/>
+      <c r="D84" s="179"/>
+      <c r="E84" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="105"/>
+      <c r="O84" s="106"/>
+      <c r="P84" s="106"/>
+      <c r="Q84" s="106"/>
+      <c r="R84" s="106"/>
+      <c r="S84" s="106"/>
+      <c r="T84" s="106"/>
+      <c r="U84" s="106"/>
+      <c r="V84" s="106"/>
+      <c r="W84" s="107"/>
+      <c r="X84" s="107"/>
+      <c r="Y84" s="107"/>
+      <c r="Z84" s="107"/>
+      <c r="AA84" s="107"/>
+      <c r="AB84" s="107"/>
+      <c r="AC84" s="107"/>
+      <c r="AD84" s="106"/>
+      <c r="AE84" s="106"/>
+      <c r="AF84" s="107"/>
+      <c r="AG84" s="106"/>
+      <c r="AH84" s="106"/>
+      <c r="AI84" s="106"/>
+      <c r="AJ84" s="106"/>
+      <c r="AK84" s="106"/>
+      <c r="AL84" s="106"/>
+      <c r="AM84" s="106"/>
+      <c r="AN84" s="106"/>
+      <c r="AO84" s="106"/>
+      <c r="AP84" s="108"/>
+      <c r="AQ84" s="108"/>
+      <c r="AR84" s="108"/>
+      <c r="AS84" s="105"/>
+      <c r="AT84" s="106"/>
+      <c r="AU84" s="106"/>
+      <c r="AV84" s="106"/>
+      <c r="AW84" s="106"/>
+      <c r="AX84" s="106"/>
+      <c r="AY84" s="106"/>
+      <c r="AZ84" s="106"/>
+      <c r="BA84" s="106"/>
+      <c r="BB84" s="106"/>
+      <c r="BC84" s="108"/>
+      <c r="BD84" s="108"/>
+      <c r="BE84" s="108"/>
+      <c r="BF84" s="108"/>
+      <c r="BG84" s="108"/>
+      <c r="BH84" s="108"/>
+      <c r="BI84" s="108"/>
+      <c r="BJ84" s="108"/>
+      <c r="BK84" s="108"/>
+      <c r="BL84" s="108"/>
+      <c r="BM84" s="108"/>
+      <c r="BN84" s="108"/>
+      <c r="BO84" s="108"/>
+      <c r="BP84" s="108"/>
+      <c r="BQ84" s="108"/>
+      <c r="BR84" s="108"/>
+      <c r="BS84" s="108"/>
+      <c r="BT84" s="108"/>
+      <c r="BU84" s="108"/>
+      <c r="BV84" s="108"/>
+      <c r="BW84" s="108"/>
+      <c r="BX84" s="108"/>
+      <c r="BY84" s="108"/>
+      <c r="BZ84" s="108"/>
+      <c r="CA84" s="108"/>
+      <c r="CB84" s="108"/>
+      <c r="CC84" s="108"/>
+      <c r="CD84" s="108"/>
+      <c r="CE84" s="108"/>
+      <c r="CF84" s="108"/>
+      <c r="CG84" s="108"/>
+      <c r="CH84" s="108"/>
+      <c r="CI84" s="108"/>
+      <c r="CJ84" s="108"/>
+      <c r="CK84" s="108"/>
+      <c r="CL84" s="108"/>
+      <c r="CM84" s="108"/>
+      <c r="CN84" s="108"/>
+      <c r="CO84" s="108"/>
     </row>
     <row r="85" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="173"/>
+      <c r="B85" s="157"/>
       <c r="C85" s="43" t="s">
         <v>81</v>
       </c>
@@ -21791,7 +21797,7 @@
       <c r="CO85" s="13"/>
     </row>
     <row r="86" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="173"/>
+      <c r="B86" s="157"/>
       <c r="C86" s="43" t="s">
         <v>82</v>
       </c>
@@ -21886,112 +21892,112 @@
       <c r="CN86" s="13"/>
       <c r="CO86" s="13"/>
     </row>
-    <row r="87" spans="2:93" s="195" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="173"/>
-      <c r="C87" s="191" t="s">
+    <row r="87" spans="2:93" s="113" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="157"/>
+      <c r="C87" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="192"/>
-      <c r="E87" s="193" t="s">
-        <v>38</v>
-      </c>
-      <c r="F87" s="194"/>
-      <c r="G87" s="194"/>
-      <c r="H87" s="194"/>
-      <c r="I87" s="194"/>
-      <c r="J87" s="194"/>
-      <c r="K87" s="194"/>
-      <c r="L87" s="194"/>
-      <c r="M87" s="194"/>
-      <c r="N87" s="194"/>
-      <c r="O87" s="193"/>
-      <c r="P87" s="193"/>
-      <c r="Q87" s="193"/>
-      <c r="R87" s="193"/>
-      <c r="S87" s="193"/>
-      <c r="T87" s="193"/>
-      <c r="U87" s="193"/>
-      <c r="V87" s="193"/>
-      <c r="W87" s="194"/>
-      <c r="X87" s="194"/>
-      <c r="Y87" s="194"/>
-      <c r="Z87" s="194"/>
-      <c r="AA87" s="194"/>
-      <c r="AB87" s="194"/>
-      <c r="AC87" s="194"/>
-      <c r="AD87" s="193"/>
-      <c r="AE87" s="193"/>
-      <c r="AF87" s="194"/>
-      <c r="AG87" s="193" t="s">
+      <c r="D87" s="164"/>
+      <c r="E87" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="112"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="112"/>
+      <c r="N87" s="112"/>
+      <c r="O87" s="111"/>
+      <c r="P87" s="111"/>
+      <c r="Q87" s="111"/>
+      <c r="R87" s="111"/>
+      <c r="S87" s="111"/>
+      <c r="T87" s="111"/>
+      <c r="U87" s="111"/>
+      <c r="V87" s="111"/>
+      <c r="W87" s="112"/>
+      <c r="X87" s="112"/>
+      <c r="Y87" s="112"/>
+      <c r="Z87" s="112"/>
+      <c r="AA87" s="112"/>
+      <c r="AB87" s="112"/>
+      <c r="AC87" s="112"/>
+      <c r="AD87" s="111"/>
+      <c r="AE87" s="111"/>
+      <c r="AF87" s="112"/>
+      <c r="AG87" s="111" t="s">
         <v>532</v>
       </c>
-      <c r="AH87" s="193"/>
-      <c r="AI87" s="193"/>
-      <c r="AJ87" s="193"/>
-      <c r="AK87" s="193"/>
-      <c r="AL87" s="193"/>
-      <c r="AM87" s="193"/>
-      <c r="AN87" s="193"/>
-      <c r="AO87" s="193"/>
-      <c r="AP87" s="193"/>
-      <c r="AQ87" s="193"/>
-      <c r="AR87" s="193"/>
-      <c r="AS87" s="194"/>
-      <c r="AT87" s="193"/>
-      <c r="AU87" s="193"/>
-      <c r="AV87" s="193"/>
-      <c r="AW87" s="193"/>
-      <c r="AX87" s="193"/>
-      <c r="AY87" s="193"/>
-      <c r="AZ87" s="193"/>
-      <c r="BA87" s="193"/>
-      <c r="BB87" s="193"/>
-      <c r="BC87" s="193"/>
-      <c r="BD87" s="193"/>
-      <c r="BE87" s="193"/>
-      <c r="BF87" s="193"/>
-      <c r="BG87" s="193"/>
-      <c r="BH87" s="193"/>
-      <c r="BI87" s="193"/>
-      <c r="BJ87" s="193"/>
-      <c r="BK87" s="193"/>
-      <c r="BL87" s="193"/>
-      <c r="BM87" s="193"/>
-      <c r="BN87" s="193"/>
-      <c r="BO87" s="193"/>
-      <c r="BP87" s="193"/>
-      <c r="BQ87" s="193"/>
-      <c r="BR87" s="193"/>
-      <c r="BS87" s="193"/>
-      <c r="BT87" s="193"/>
-      <c r="BU87" s="193"/>
-      <c r="BV87" s="193"/>
-      <c r="BW87" s="193"/>
-      <c r="BX87" s="193"/>
-      <c r="BY87" s="193"/>
-      <c r="BZ87" s="193"/>
-      <c r="CA87" s="193"/>
-      <c r="CB87" s="193"/>
-      <c r="CC87" s="193"/>
-      <c r="CD87" s="193"/>
-      <c r="CE87" s="193"/>
-      <c r="CF87" s="193"/>
-      <c r="CG87" s="193"/>
-      <c r="CH87" s="193"/>
-      <c r="CI87" s="193"/>
-      <c r="CJ87" s="193"/>
-      <c r="CK87" s="193"/>
-      <c r="CL87" s="193"/>
-      <c r="CM87" s="193"/>
-      <c r="CN87" s="193"/>
-      <c r="CO87" s="193"/>
+      <c r="AH87" s="111"/>
+      <c r="AI87" s="111"/>
+      <c r="AJ87" s="111"/>
+      <c r="AK87" s="111"/>
+      <c r="AL87" s="111"/>
+      <c r="AM87" s="111"/>
+      <c r="AN87" s="111"/>
+      <c r="AO87" s="111"/>
+      <c r="AP87" s="111"/>
+      <c r="AQ87" s="111"/>
+      <c r="AR87" s="111"/>
+      <c r="AS87" s="112"/>
+      <c r="AT87" s="111"/>
+      <c r="AU87" s="111"/>
+      <c r="AV87" s="111"/>
+      <c r="AW87" s="111"/>
+      <c r="AX87" s="111"/>
+      <c r="AY87" s="111"/>
+      <c r="AZ87" s="111"/>
+      <c r="BA87" s="111"/>
+      <c r="BB87" s="111"/>
+      <c r="BC87" s="111"/>
+      <c r="BD87" s="111"/>
+      <c r="BE87" s="111"/>
+      <c r="BF87" s="111"/>
+      <c r="BG87" s="111"/>
+      <c r="BH87" s="111"/>
+      <c r="BI87" s="111"/>
+      <c r="BJ87" s="111"/>
+      <c r="BK87" s="111"/>
+      <c r="BL87" s="111"/>
+      <c r="BM87" s="111"/>
+      <c r="BN87" s="111"/>
+      <c r="BO87" s="111"/>
+      <c r="BP87" s="111"/>
+      <c r="BQ87" s="111"/>
+      <c r="BR87" s="111"/>
+      <c r="BS87" s="111"/>
+      <c r="BT87" s="111"/>
+      <c r="BU87" s="111"/>
+      <c r="BV87" s="111"/>
+      <c r="BW87" s="111"/>
+      <c r="BX87" s="111"/>
+      <c r="BY87" s="111"/>
+      <c r="BZ87" s="111"/>
+      <c r="CA87" s="111"/>
+      <c r="CB87" s="111"/>
+      <c r="CC87" s="111"/>
+      <c r="CD87" s="111"/>
+      <c r="CE87" s="111"/>
+      <c r="CF87" s="111"/>
+      <c r="CG87" s="111"/>
+      <c r="CH87" s="111"/>
+      <c r="CI87" s="111"/>
+      <c r="CJ87" s="111"/>
+      <c r="CK87" s="111"/>
+      <c r="CL87" s="111"/>
+      <c r="CM87" s="111"/>
+      <c r="CN87" s="111"/>
+      <c r="CO87" s="111"/>
     </row>
     <row r="88" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="173"/>
-      <c r="C88" s="125" t="s">
+      <c r="B88" s="157"/>
+      <c r="C88" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="161"/>
+      <c r="D88" s="160"/>
       <c r="E88" s="13"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -22083,11 +22089,11 @@
       <c r="CO88" s="13"/>
     </row>
     <row r="89" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="173"/>
-      <c r="C89" s="125" t="s">
+      <c r="B89" s="157"/>
+      <c r="C89" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="D89" s="161"/>
+      <c r="D89" s="160"/>
       <c r="E89" s="13"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -22179,11 +22185,11 @@
       <c r="CO89" s="13"/>
     </row>
     <row r="90" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="173"/>
-      <c r="C90" s="125" t="s">
+      <c r="B90" s="157"/>
+      <c r="C90" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="D90" s="161"/>
+      <c r="D90" s="160"/>
       <c r="E90" s="13"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -22277,11 +22283,11 @@
       <c r="CO90" s="13"/>
     </row>
     <row r="91" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="173"/>
-      <c r="C91" s="125" t="s">
+      <c r="B91" s="157"/>
+      <c r="C91" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="161"/>
+      <c r="D91" s="160"/>
       <c r="E91" s="13"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -22373,11 +22379,11 @@
       <c r="CO91" s="13"/>
     </row>
     <row r="92" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="173"/>
-      <c r="C92" s="125" t="s">
+      <c r="B92" s="157"/>
+      <c r="C92" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="D92" s="161"/>
+      <c r="D92" s="160"/>
       <c r="E92" s="13"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -22471,8 +22477,8 @@
       <c r="CO92" s="13"/>
     </row>
     <row r="93" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="173"/>
-      <c r="C93" s="162" t="s">
+      <c r="B93" s="157"/>
+      <c r="C93" s="168" t="s">
         <v>89</v>
       </c>
       <c r="D93" s="46" t="s">
@@ -22571,8 +22577,8 @@
       <c r="CO93" s="13"/>
     </row>
     <row r="94" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="173"/>
-      <c r="C94" s="162"/>
+      <c r="B94" s="157"/>
+      <c r="C94" s="168"/>
       <c r="D94" s="43" t="s">
         <v>90</v>
       </c>
@@ -22669,8 +22675,8 @@
       <c r="CO94" s="13"/>
     </row>
     <row r="95" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="173"/>
-      <c r="C95" s="162"/>
+      <c r="B95" s="157"/>
+      <c r="C95" s="168"/>
       <c r="D95" s="43" t="s">
         <v>91</v>
       </c>
@@ -22767,11 +22773,11 @@
       <c r="CO95" s="13"/>
     </row>
     <row r="96" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="173"/>
-      <c r="C96" s="125" t="s">
+      <c r="B96" s="157"/>
+      <c r="C96" s="129" t="s">
         <v>567</v>
       </c>
-      <c r="D96" s="161"/>
+      <c r="D96" s="160"/>
       <c r="E96" s="13"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -22865,11 +22871,11 @@
       <c r="CO96" s="13"/>
     </row>
     <row r="97" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="173"/>
-      <c r="C97" s="125" t="s">
+      <c r="B97" s="157"/>
+      <c r="C97" s="129" t="s">
         <v>568</v>
       </c>
-      <c r="D97" s="161"/>
+      <c r="D97" s="160"/>
       <c r="E97" s="13"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -22963,7 +22969,7 @@
       <c r="CO97" s="13"/>
     </row>
     <row r="98" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B98" s="173"/>
+      <c r="B98" s="157"/>
       <c r="C98" s="12" t="s">
         <v>569</v>
       </c>
@@ -23061,7 +23067,7 @@
       <c r="CO98" s="9"/>
     </row>
     <row r="99" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B99" s="173"/>
+      <c r="B99" s="157"/>
       <c r="C99" s="48" t="s">
         <v>570</v>
       </c>
@@ -23159,7 +23165,7 @@
       <c r="CO99" s="9"/>
     </row>
     <row r="100" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B100" s="173"/>
+      <c r="B100" s="157"/>
       <c r="C100" s="48" t="s">
         <v>571</v>
       </c>
@@ -23257,7 +23263,7 @@
       <c r="CO100" s="9"/>
     </row>
     <row r="101" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B101" s="173"/>
+      <c r="B101" s="157"/>
       <c r="C101" s="48" t="s">
         <v>572</v>
       </c>
@@ -23355,7 +23361,7 @@
       <c r="CO101" s="9"/>
     </row>
     <row r="102" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B102" s="173"/>
+      <c r="B102" s="157"/>
       <c r="C102" s="48" t="s">
         <v>573</v>
       </c>
@@ -23453,7 +23459,7 @@
       <c r="CO102" s="9"/>
     </row>
     <row r="103" spans="2:93" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="173"/>
+      <c r="B103" s="157"/>
       <c r="C103" s="48" t="s">
         <v>574</v>
       </c>
@@ -23551,7 +23557,7 @@
       <c r="CO103" s="9"/>
     </row>
     <row r="104" spans="2:93" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="173"/>
+      <c r="B104" s="157"/>
       <c r="C104" s="48" t="s">
         <v>575</v>
       </c>
@@ -23649,7 +23655,7 @@
       <c r="CO104" s="9"/>
     </row>
     <row r="105" spans="2:93" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="173"/>
+      <c r="B105" s="157"/>
       <c r="C105" s="48" t="s">
         <v>576</v>
       </c>
@@ -23747,7 +23753,7 @@
       <c r="CO105" s="9"/>
     </row>
     <row r="106" spans="2:93" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="173"/>
+      <c r="B106" s="157"/>
       <c r="C106" s="48" t="s">
         <v>577</v>
       </c>
@@ -23845,7 +23851,7 @@
       <c r="CO106" s="9"/>
     </row>
     <row r="107" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B107" s="173"/>
+      <c r="B107" s="157"/>
       <c r="C107" s="48" t="s">
         <v>578</v>
       </c>
@@ -23943,7 +23949,7 @@
       <c r="CO107" s="9"/>
     </row>
     <row r="108" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B108" s="173"/>
+      <c r="B108" s="157"/>
       <c r="C108" s="48" t="s">
         <v>579</v>
       </c>
@@ -24041,7 +24047,7 @@
       <c r="CO108" s="9"/>
     </row>
     <row r="109" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B109" s="174"/>
+      <c r="B109" s="158"/>
       <c r="C109" s="49" t="s">
         <v>580</v>
       </c>
@@ -24139,13 +24145,13 @@
       <c r="CO109" s="9"/>
     </row>
     <row r="110" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="172" t="s">
+      <c r="B110" s="156" t="s">
         <v>581</v>
       </c>
-      <c r="C110" s="125" t="s">
+      <c r="C110" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D110" s="161"/>
+      <c r="D110" s="160"/>
       <c r="E110" s="13"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
@@ -24247,11 +24253,11 @@
       <c r="CO110" s="13"/>
     </row>
     <row r="111" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="173"/>
-      <c r="C111" s="125" t="s">
+      <c r="B111" s="157"/>
+      <c r="C111" s="129" t="s">
         <v>582</v>
       </c>
-      <c r="D111" s="161"/>
+      <c r="D111" s="160"/>
       <c r="E111" s="13"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
@@ -24345,11 +24351,11 @@
       <c r="CO111" s="13"/>
     </row>
     <row r="112" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="173"/>
-      <c r="C112" s="125" t="s">
+      <c r="B112" s="157"/>
+      <c r="C112" s="129" t="s">
         <v>583</v>
       </c>
-      <c r="D112" s="161"/>
+      <c r="D112" s="160"/>
       <c r="E112" s="13"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -24443,11 +24449,11 @@
       <c r="CO112" s="13"/>
     </row>
     <row r="113" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="173"/>
-      <c r="C113" s="125" t="s">
+      <c r="B113" s="157"/>
+      <c r="C113" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="161"/>
+      <c r="D113" s="160"/>
       <c r="E113" s="13"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -24541,11 +24547,11 @@
       <c r="CO113" s="13"/>
     </row>
     <row r="114" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="173"/>
-      <c r="C114" s="125" t="s">
+      <c r="B114" s="157"/>
+      <c r="C114" s="129" t="s">
         <v>474</v>
       </c>
-      <c r="D114" s="161"/>
+      <c r="D114" s="160"/>
       <c r="E114" s="13"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -24639,11 +24645,11 @@
       <c r="CO114" s="13"/>
     </row>
     <row r="115" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="173"/>
-      <c r="C115" s="125" t="s">
+      <c r="B115" s="157"/>
+      <c r="C115" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="D115" s="161"/>
+      <c r="D115" s="160"/>
       <c r="E115" s="13"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -24735,11 +24741,11 @@
       <c r="CO115" s="13"/>
     </row>
     <row r="116" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="173"/>
-      <c r="C116" s="125" t="s">
+      <c r="B116" s="157"/>
+      <c r="C116" s="129" t="s">
         <v>476</v>
       </c>
-      <c r="D116" s="161"/>
+      <c r="D116" s="160"/>
       <c r="E116" s="13"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
@@ -24835,8 +24841,8 @@
       <c r="CO116" s="13"/>
     </row>
     <row r="117" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="173"/>
-      <c r="C117" s="123" t="s">
+      <c r="B117" s="157"/>
+      <c r="C117" s="122" t="s">
         <v>478</v>
       </c>
       <c r="D117" s="43" t="s">
@@ -24935,8 +24941,8 @@
       <c r="CO117" s="13"/>
     </row>
     <row r="118" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="173"/>
-      <c r="C118" s="124"/>
+      <c r="B118" s="157"/>
+      <c r="C118" s="123"/>
       <c r="D118" s="43" t="s">
         <v>19</v>
       </c>
@@ -25033,8 +25039,8 @@
       <c r="CO118" s="13"/>
     </row>
     <row r="119" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="173"/>
-      <c r="C119" s="124"/>
+      <c r="B119" s="157"/>
+      <c r="C119" s="123"/>
       <c r="D119" s="43" t="s">
         <v>16</v>
       </c>
@@ -25131,8 +25137,8 @@
       <c r="CO119" s="13"/>
     </row>
     <row r="120" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="173"/>
-      <c r="C120" s="124"/>
+      <c r="B120" s="157"/>
+      <c r="C120" s="123"/>
       <c r="D120" s="43" t="s">
         <v>17</v>
       </c>
@@ -25229,8 +25235,8 @@
       <c r="CO120" s="13"/>
     </row>
     <row r="121" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="173"/>
-      <c r="C121" s="133"/>
+      <c r="B121" s="157"/>
+      <c r="C121" s="143"/>
       <c r="D121" s="43" t="s">
         <v>18</v>
       </c>
@@ -25327,8 +25333,8 @@
       <c r="CO121" s="13"/>
     </row>
     <row r="122" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="173"/>
-      <c r="C122" s="123" t="s">
+      <c r="B122" s="157"/>
+      <c r="C122" s="122" t="s">
         <v>480</v>
       </c>
       <c r="D122" s="43" t="s">
@@ -25427,8 +25433,8 @@
       <c r="CO122" s="13"/>
     </row>
     <row r="123" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="173"/>
-      <c r="C123" s="124"/>
+      <c r="B123" s="157"/>
+      <c r="C123" s="123"/>
       <c r="D123" s="43" t="s">
         <v>19</v>
       </c>
@@ -25525,8 +25531,8 @@
       <c r="CO123" s="13"/>
     </row>
     <row r="124" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="173"/>
-      <c r="C124" s="124"/>
+      <c r="B124" s="157"/>
+      <c r="C124" s="123"/>
       <c r="D124" s="43" t="s">
         <v>16</v>
       </c>
@@ -25623,8 +25629,8 @@
       <c r="CO124" s="13"/>
     </row>
     <row r="125" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="173"/>
-      <c r="C125" s="124"/>
+      <c r="B125" s="157"/>
+      <c r="C125" s="123"/>
       <c r="D125" s="43" t="s">
         <v>17</v>
       </c>
@@ -25721,8 +25727,8 @@
       <c r="CO125" s="13"/>
     </row>
     <row r="126" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="173"/>
-      <c r="C126" s="133"/>
+      <c r="B126" s="157"/>
+      <c r="C126" s="143"/>
       <c r="D126" s="43" t="s">
         <v>92</v>
       </c>
@@ -25819,11 +25825,11 @@
       <c r="CO126" s="13"/>
     </row>
     <row r="127" spans="2:93" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="173"/>
-      <c r="C127" s="141" t="s">
+      <c r="B127" s="157"/>
+      <c r="C127" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="D127" s="168"/>
+      <c r="D127" s="165"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
@@ -25919,11 +25925,11 @@
       <c r="CO127" s="9"/>
     </row>
     <row r="128" spans="2:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="174"/>
-      <c r="C128" s="175" t="s">
+      <c r="B128" s="158"/>
+      <c r="C128" s="166" t="s">
         <v>585</v>
       </c>
-      <c r="D128" s="176"/>
+      <c r="D128" s="167"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
@@ -26017,13 +26023,13 @@
       <c r="CO128" s="9"/>
     </row>
     <row r="129" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="172" t="s">
+      <c r="B129" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="C129" s="125" t="s">
+      <c r="C129" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="D129" s="161"/>
+      <c r="D129" s="160"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
@@ -26115,11 +26121,11 @@
       <c r="CO129" s="9"/>
     </row>
     <row r="130" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="173"/>
-      <c r="C130" s="125" t="s">
+      <c r="B130" s="157"/>
+      <c r="C130" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="D130" s="161"/>
+      <c r="D130" s="160"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
@@ -26211,11 +26217,11 @@
       <c r="CO130" s="9"/>
     </row>
     <row r="131" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="173"/>
-      <c r="C131" s="125" t="s">
+      <c r="B131" s="157"/>
+      <c r="C131" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="D131" s="161"/>
+      <c r="D131" s="160"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -26307,11 +26313,11 @@
       <c r="CO131" s="9"/>
     </row>
     <row r="132" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="173"/>
-      <c r="C132" s="125" t="s">
+      <c r="B132" s="157"/>
+      <c r="C132" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="D132" s="161"/>
+      <c r="D132" s="160"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
@@ -26403,11 +26409,11 @@
       <c r="CO132" s="9"/>
     </row>
     <row r="133" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="173"/>
-      <c r="C133" s="125" t="s">
+      <c r="B133" s="157"/>
+      <c r="C133" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="D133" s="161"/>
+      <c r="D133" s="160"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
@@ -26499,11 +26505,11 @@
       <c r="CO133" s="9"/>
     </row>
     <row r="134" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="173"/>
-      <c r="C134" s="125" t="s">
+      <c r="B134" s="157"/>
+      <c r="C134" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="D134" s="161"/>
+      <c r="D134" s="160"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
@@ -26595,11 +26601,11 @@
       <c r="CO134" s="9"/>
     </row>
     <row r="135" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B135" s="173"/>
-      <c r="C135" s="125" t="s">
+      <c r="B135" s="157"/>
+      <c r="C135" s="129" t="s">
         <v>586</v>
       </c>
-      <c r="D135" s="161"/>
+      <c r="D135" s="160"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
@@ -26693,11 +26699,11 @@
       <c r="CO135" s="9"/>
     </row>
     <row r="136" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="173"/>
-      <c r="C136" s="125" t="s">
+      <c r="B136" s="157"/>
+      <c r="C136" s="129" t="s">
         <v>587</v>
       </c>
-      <c r="D136" s="161"/>
+      <c r="D136" s="160"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
@@ -26791,11 +26797,11 @@
       <c r="CO136" s="9"/>
     </row>
     <row r="137" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="173"/>
-      <c r="C137" s="125" t="s">
+      <c r="B137" s="157"/>
+      <c r="C137" s="129" t="s">
         <v>588</v>
       </c>
-      <c r="D137" s="161"/>
+      <c r="D137" s="160"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
@@ -26889,11 +26895,11 @@
       <c r="CO137" s="9"/>
     </row>
     <row r="138" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B138" s="173"/>
-      <c r="C138" s="125" t="s">
+      <c r="B138" s="157"/>
+      <c r="C138" s="129" t="s">
         <v>589</v>
       </c>
-      <c r="D138" s="161"/>
+      <c r="D138" s="160"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
@@ -26987,11 +26993,11 @@
       <c r="CO138" s="9"/>
     </row>
     <row r="139" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="173"/>
-      <c r="C139" s="125" t="s">
+      <c r="B139" s="157"/>
+      <c r="C139" s="129" t="s">
         <v>590</v>
       </c>
-      <c r="D139" s="161"/>
+      <c r="D139" s="160"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
@@ -27085,11 +27091,11 @@
       <c r="CO139" s="9"/>
     </row>
     <row r="140" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B140" s="173"/>
-      <c r="C140" s="125" t="s">
+      <c r="B140" s="157"/>
+      <c r="C140" s="129" t="s">
         <v>591</v>
       </c>
-      <c r="D140" s="161"/>
+      <c r="D140" s="160"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
@@ -27189,11 +27195,11 @@
       <c r="CO140" s="9"/>
     </row>
     <row r="141" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B141" s="173"/>
-      <c r="C141" s="125" t="s">
+      <c r="B141" s="157"/>
+      <c r="C141" s="129" t="s">
         <v>592</v>
       </c>
-      <c r="D141" s="161"/>
+      <c r="D141" s="160"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
@@ -27287,11 +27293,11 @@
       <c r="CO141" s="9"/>
     </row>
     <row r="142" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="173"/>
-      <c r="C142" s="125" t="s">
+      <c r="B142" s="157"/>
+      <c r="C142" s="129" t="s">
         <v>593</v>
       </c>
-      <c r="D142" s="161"/>
+      <c r="D142" s="160"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
@@ -27385,11 +27391,11 @@
       <c r="CO142" s="9"/>
     </row>
     <row r="143" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="173"/>
-      <c r="C143" s="125" t="s">
+      <c r="B143" s="157"/>
+      <c r="C143" s="129" t="s">
         <v>594</v>
       </c>
-      <c r="D143" s="161"/>
+      <c r="D143" s="160"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
@@ -27483,11 +27489,11 @@
       <c r="CO143" s="9"/>
     </row>
     <row r="144" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="173"/>
-      <c r="C144" s="125" t="s">
+      <c r="B144" s="157"/>
+      <c r="C144" s="129" t="s">
         <v>595</v>
       </c>
-      <c r="D144" s="161"/>
+      <c r="D144" s="160"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -27581,11 +27587,11 @@
       <c r="CO144" s="9"/>
     </row>
     <row r="145" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="173"/>
-      <c r="C145" s="125" t="s">
+      <c r="B145" s="157"/>
+      <c r="C145" s="129" t="s">
         <v>596</v>
       </c>
-      <c r="D145" s="161"/>
+      <c r="D145" s="160"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
@@ -27679,11 +27685,11 @@
       <c r="CO145" s="9"/>
     </row>
     <row r="146" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B146" s="173"/>
-      <c r="C146" s="125" t="s">
+      <c r="B146" s="157"/>
+      <c r="C146" s="129" t="s">
         <v>597</v>
       </c>
-      <c r="D146" s="161"/>
+      <c r="D146" s="160"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
@@ -27777,11 +27783,11 @@
       <c r="CO146" s="9"/>
     </row>
     <row r="147" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="173"/>
-      <c r="C147" s="125" t="s">
+      <c r="B147" s="157"/>
+      <c r="C147" s="129" t="s">
         <v>598</v>
       </c>
-      <c r="D147" s="161"/>
+      <c r="D147" s="160"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
@@ -27875,11 +27881,11 @@
       <c r="CO147" s="9"/>
     </row>
     <row r="148" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B148" s="173"/>
-      <c r="C148" s="125" t="s">
+      <c r="B148" s="157"/>
+      <c r="C148" s="129" t="s">
         <v>599</v>
       </c>
-      <c r="D148" s="161"/>
+      <c r="D148" s="160"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
@@ -27973,11 +27979,11 @@
       <c r="CO148" s="9"/>
     </row>
     <row r="149" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B149" s="173"/>
-      <c r="C149" s="125" t="s">
+      <c r="B149" s="157"/>
+      <c r="C149" s="129" t="s">
         <v>600</v>
       </c>
-      <c r="D149" s="161"/>
+      <c r="D149" s="160"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
@@ -28071,11 +28077,11 @@
       <c r="CO149" s="9"/>
     </row>
     <row r="150" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B150" s="173"/>
-      <c r="C150" s="125" t="s">
+      <c r="B150" s="157"/>
+      <c r="C150" s="129" t="s">
         <v>601</v>
       </c>
-      <c r="D150" s="161"/>
+      <c r="D150" s="160"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
@@ -28169,11 +28175,11 @@
       <c r="CO150" s="9"/>
     </row>
     <row r="151" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B151" s="173"/>
-      <c r="C151" s="125" t="s">
+      <c r="B151" s="157"/>
+      <c r="C151" s="129" t="s">
         <v>602</v>
       </c>
-      <c r="D151" s="161"/>
+      <c r="D151" s="160"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
@@ -28267,11 +28273,11 @@
       <c r="CO151" s="9"/>
     </row>
     <row r="152" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B152" s="173"/>
-      <c r="C152" s="125" t="s">
+      <c r="B152" s="157"/>
+      <c r="C152" s="129" t="s">
         <v>603</v>
       </c>
-      <c r="D152" s="161"/>
+      <c r="D152" s="160"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
@@ -28365,11 +28371,11 @@
       <c r="CO152" s="9"/>
     </row>
     <row r="153" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B153" s="173"/>
-      <c r="C153" s="125" t="s">
+      <c r="B153" s="157"/>
+      <c r="C153" s="129" t="s">
         <v>599</v>
       </c>
-      <c r="D153" s="161"/>
+      <c r="D153" s="160"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
@@ -28463,11 +28469,11 @@
       <c r="CO153" s="9"/>
     </row>
     <row r="154" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B154" s="173"/>
-      <c r="C154" s="125" t="s">
+      <c r="B154" s="157"/>
+      <c r="C154" s="129" t="s">
         <v>600</v>
       </c>
-      <c r="D154" s="161"/>
+      <c r="D154" s="160"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
@@ -28561,11 +28567,11 @@
       <c r="CO154" s="9"/>
     </row>
     <row r="155" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B155" s="173"/>
-      <c r="C155" s="125" t="s">
+      <c r="B155" s="157"/>
+      <c r="C155" s="129" t="s">
         <v>604</v>
       </c>
-      <c r="D155" s="161"/>
+      <c r="D155" s="160"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -28659,11 +28665,11 @@
       <c r="CO155" s="9"/>
     </row>
     <row r="156" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B156" s="173"/>
-      <c r="C156" s="125" t="s">
+      <c r="B156" s="157"/>
+      <c r="C156" s="129" t="s">
         <v>605</v>
       </c>
-      <c r="D156" s="161"/>
+      <c r="D156" s="160"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
@@ -28757,11 +28763,11 @@
       <c r="CO156" s="9"/>
     </row>
     <row r="157" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="173"/>
-      <c r="C157" s="125" t="s">
+      <c r="B157" s="157"/>
+      <c r="C157" s="129" t="s">
         <v>606</v>
       </c>
-      <c r="D157" s="161"/>
+      <c r="D157" s="160"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
@@ -28855,11 +28861,11 @@
       <c r="CO157" s="9"/>
     </row>
     <row r="158" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B158" s="173"/>
-      <c r="C158" s="125" t="s">
+      <c r="B158" s="157"/>
+      <c r="C158" s="129" t="s">
         <v>599</v>
       </c>
-      <c r="D158" s="161"/>
+      <c r="D158" s="160"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
@@ -28953,11 +28959,11 @@
       <c r="CO158" s="9"/>
     </row>
     <row r="159" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B159" s="173"/>
-      <c r="C159" s="125" t="s">
+      <c r="B159" s="157"/>
+      <c r="C159" s="129" t="s">
         <v>600</v>
       </c>
-      <c r="D159" s="161"/>
+      <c r="D159" s="160"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
@@ -29051,11 +29057,11 @@
       <c r="CO159" s="9"/>
     </row>
     <row r="160" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B160" s="173"/>
-      <c r="C160" s="125" t="s">
+      <c r="B160" s="157"/>
+      <c r="C160" s="129" t="s">
         <v>604</v>
       </c>
-      <c r="D160" s="161"/>
+      <c r="D160" s="160"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
@@ -29149,11 +29155,11 @@
       <c r="CO160" s="9"/>
     </row>
     <row r="161" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B161" s="173"/>
-      <c r="C161" s="125" t="s">
+      <c r="B161" s="157"/>
+      <c r="C161" s="129" t="s">
         <v>607</v>
       </c>
-      <c r="D161" s="161"/>
+      <c r="D161" s="160"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
@@ -29245,11 +29251,11 @@
       <c r="CO161" s="9"/>
     </row>
     <row r="162" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B162" s="173"/>
-      <c r="C162" s="125" t="s">
+      <c r="B162" s="157"/>
+      <c r="C162" s="129" t="s">
         <v>608</v>
       </c>
-      <c r="D162" s="161"/>
+      <c r="D162" s="160"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -29343,11 +29349,11 @@
       <c r="CO162" s="9"/>
     </row>
     <row r="163" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B163" s="173"/>
-      <c r="C163" s="125" t="s">
+      <c r="B163" s="157"/>
+      <c r="C163" s="129" t="s">
         <v>610</v>
       </c>
-      <c r="D163" s="161"/>
+      <c r="D163" s="160"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
@@ -29441,11 +29447,11 @@
       <c r="CO163" s="9"/>
     </row>
     <row r="164" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B164" s="173"/>
-      <c r="C164" s="125" t="s">
+      <c r="B164" s="157"/>
+      <c r="C164" s="129" t="s">
         <v>611</v>
       </c>
-      <c r="D164" s="161"/>
+      <c r="D164" s="160"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
@@ -29539,11 +29545,11 @@
       <c r="CO164" s="9"/>
     </row>
     <row r="165" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="173"/>
-      <c r="C165" s="125" t="s">
+      <c r="B165" s="157"/>
+      <c r="C165" s="129" t="s">
         <v>612</v>
       </c>
-      <c r="D165" s="161"/>
+      <c r="D165" s="160"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
@@ -29637,11 +29643,11 @@
       <c r="CO165" s="9"/>
     </row>
     <row r="166" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B166" s="173"/>
-      <c r="C166" s="125" t="s">
+      <c r="B166" s="157"/>
+      <c r="C166" s="129" t="s">
         <v>613</v>
       </c>
-      <c r="D166" s="161"/>
+      <c r="D166" s="160"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
@@ -29735,11 +29741,11 @@
       <c r="CO166" s="9"/>
     </row>
     <row r="167" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B167" s="174"/>
-      <c r="C167" s="125" t="s">
+      <c r="B167" s="158"/>
+      <c r="C167" s="129" t="s">
         <v>614</v>
       </c>
-      <c r="D167" s="161"/>
+      <c r="D167" s="160"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
@@ -29833,13 +29839,13 @@
       <c r="CO167" s="9"/>
     </row>
     <row r="168" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B168" s="177" t="s">
+      <c r="B168" s="161" t="s">
         <v>615</v>
       </c>
-      <c r="C168" s="141" t="s">
+      <c r="C168" s="114" t="s">
         <v>616</v>
       </c>
-      <c r="D168" s="165"/>
+      <c r="D168" s="159"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -29933,11 +29939,11 @@
       <c r="CO168" s="9"/>
     </row>
     <row r="169" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B169" s="178"/>
-      <c r="C169" s="141" t="s">
+      <c r="B169" s="162"/>
+      <c r="C169" s="114" t="s">
         <v>617</v>
       </c>
-      <c r="D169" s="165"/>
+      <c r="D169" s="159"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -30031,7 +30037,7 @@
       <c r="CO169" s="9"/>
     </row>
     <row r="170" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B170" s="172"/>
+      <c r="B170" s="156"/>
       <c r="C170" s="12" t="s">
         <v>618</v>
       </c>
@@ -30129,7 +30135,7 @@
       <c r="CO170" s="9"/>
     </row>
     <row r="171" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B171" s="173"/>
+      <c r="B171" s="157"/>
       <c r="C171" s="48" t="s">
         <v>619</v>
       </c>
@@ -30227,7 +30233,7 @@
       <c r="CO171" s="9"/>
     </row>
     <row r="172" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B172" s="173"/>
+      <c r="B172" s="157"/>
       <c r="C172" s="48" t="s">
         <v>620</v>
       </c>
@@ -30325,7 +30331,7 @@
       <c r="CO172" s="9"/>
     </row>
     <row r="173" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B173" s="173"/>
+      <c r="B173" s="157"/>
       <c r="C173" s="48" t="s">
         <v>621</v>
       </c>
@@ -30423,7 +30429,7 @@
       <c r="CO173" s="9"/>
     </row>
     <row r="174" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B174" s="173"/>
+      <c r="B174" s="157"/>
       <c r="C174" s="48" t="s">
         <v>622</v>
       </c>
@@ -30521,7 +30527,7 @@
       <c r="CO174" s="9"/>
     </row>
     <row r="175" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B175" s="173"/>
+      <c r="B175" s="157"/>
       <c r="C175" s="48" t="s">
         <v>623</v>
       </c>
@@ -30619,7 +30625,7 @@
       <c r="CO175" s="9"/>
     </row>
     <row r="176" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B176" s="173"/>
+      <c r="B176" s="157"/>
       <c r="C176" s="48" t="s">
         <v>624</v>
       </c>
@@ -30717,7 +30723,7 @@
       <c r="CO176" s="9"/>
     </row>
     <row r="177" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B177" s="173"/>
+      <c r="B177" s="157"/>
       <c r="C177" s="48" t="s">
         <v>625</v>
       </c>
@@ -30815,7 +30821,7 @@
       <c r="CO177" s="9"/>
     </row>
     <row r="178" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B178" s="173"/>
+      <c r="B178" s="157"/>
       <c r="C178" s="48" t="s">
         <v>626</v>
       </c>
@@ -30913,7 +30919,7 @@
       <c r="CO178" s="9"/>
     </row>
     <row r="179" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B179" s="173"/>
+      <c r="B179" s="157"/>
       <c r="C179" s="48" t="s">
         <v>627</v>
       </c>
@@ -31011,7 +31017,7 @@
       <c r="CO179" s="9"/>
     </row>
     <row r="180" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B180" s="173"/>
+      <c r="B180" s="157"/>
       <c r="C180" s="48" t="s">
         <v>628</v>
       </c>
@@ -31109,7 +31115,7 @@
       <c r="CO180" s="9"/>
     </row>
     <row r="181" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B181" s="173"/>
+      <c r="B181" s="157"/>
       <c r="C181" s="12" t="s">
         <v>629</v>
       </c>
@@ -31207,11 +31213,11 @@
       <c r="CO181" s="9"/>
     </row>
     <row r="182" spans="2:93" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="173"/>
-      <c r="C182" s="141" t="s">
+      <c r="B182" s="157"/>
+      <c r="C182" s="114" t="s">
         <v>630</v>
       </c>
-      <c r="D182" s="165"/>
+      <c r="D182" s="159"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
@@ -31303,11 +31309,11 @@
       <c r="CO182" s="9"/>
     </row>
     <row r="183" spans="2:93" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="174"/>
-      <c r="C183" s="141" t="s">
+      <c r="B183" s="158"/>
+      <c r="C183" s="114" t="s">
         <v>631</v>
       </c>
-      <c r="D183" s="165"/>
+      <c r="D183" s="159"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
@@ -31407,15 +31413,113 @@
     <row r="184" spans="2:93" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B170:B183"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:X2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="AD3:AS3"/>
+    <mergeCell ref="AT3:BH3"/>
+    <mergeCell ref="BI3:BO3"/>
+    <mergeCell ref="BP3:BU3"/>
+    <mergeCell ref="BV3:CA3"/>
+    <mergeCell ref="CB3:CK3"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B110:B128"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="B71:B109"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
     <mergeCell ref="C160:D160"/>
     <mergeCell ref="C153:D153"/>
     <mergeCell ref="C154:D154"/>
@@ -31440,113 +31544,15 @@
     <mergeCell ref="C147:D147"/>
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="B110:B128"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="B71:B109"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="CL3:CO3"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="AD3:AS3"/>
-    <mergeCell ref="AT3:BH3"/>
-    <mergeCell ref="BI3:BO3"/>
-    <mergeCell ref="BP3:BU3"/>
-    <mergeCell ref="BV3:CA3"/>
-    <mergeCell ref="CB3:CK3"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:X2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B39:B50"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B170:B183"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32896,7 +32902,7 @@
       <c r="L2" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="179" t="s">
+      <c r="M2" s="195" t="s">
         <v>633</v>
       </c>
     </row>
@@ -32927,7 +32933,7 @@
       <c r="L3" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="M3" s="179"/>
+      <c r="M3" s="195"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
@@ -32956,7 +32962,7 @@
       <c r="L4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="179"/>
+      <c r="M4" s="195"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
@@ -38325,7 +38331,7 @@
       <c r="M2" s="92" t="s">
         <v>650</v>
       </c>
-      <c r="N2" s="179" t="s">
+      <c r="N2" s="195" t="s">
         <v>652</v>
       </c>
     </row>
@@ -38367,7 +38373,7 @@
       <c r="M3" s="92" t="s">
         <v>650</v>
       </c>
-      <c r="N3" s="179"/>
+      <c r="N3" s="195"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
@@ -38407,7 +38413,7 @@
       <c r="M4" s="92" t="s">
         <v>651</v>
       </c>
-      <c r="N4" s="179"/>
+      <c r="N4" s="195"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">

--- a/TBEA/BusinessPerformance/Documentation/经营数据平台-指标/经营管控平台指标整理.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/经营数据平台-指标/经营管控平台指标整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="-210" windowWidth="16245" windowHeight="10230"/>
+    <workbookView xWindow="4275" yWindow="-180" windowWidth="16245" windowHeight="10200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="事业部+公司" sheetId="6" r:id="rId1"/>
@@ -5140,7 +5140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5483,97 +5483,13 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5609,71 +5525,89 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5714,6 +5648,15 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5723,11 +5666,71 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6279,7 +6282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
@@ -6309,90 +6312,90 @@
       <c r="U1" s="51"/>
     </row>
     <row r="2" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="117" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="148" t="s">
+      <c r="F2" s="120" t="s">
         <v>394</v>
       </c>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148" t="s">
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120" t="s">
         <v>395</v>
       </c>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
     </row>
     <row r="3" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="121" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="122" t="s">
         <v>397</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="154" t="s">
+      <c r="D3" s="123"/>
+      <c r="E3" s="126" t="s">
         <v>398</v>
       </c>
-      <c r="F3" s="154" t="s">
+      <c r="F3" s="126" t="s">
         <v>399</v>
       </c>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="126" t="s">
         <v>400</v>
       </c>
-      <c r="H3" s="154" t="s">
+      <c r="H3" s="126" t="s">
         <v>401</v>
       </c>
-      <c r="I3" s="149" t="s">
+      <c r="I3" s="121" t="s">
         <v>402</v>
       </c>
-      <c r="J3" s="149" t="s">
+      <c r="J3" s="121" t="s">
         <v>403</v>
       </c>
-      <c r="K3" s="149" t="s">
+      <c r="K3" s="121" t="s">
         <v>404</v>
       </c>
-      <c r="L3" s="135" t="s">
+      <c r="L3" s="114" t="s">
         <v>405</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="N3" s="135" t="s">
+      <c r="M3" s="116"/>
+      <c r="N3" s="114" t="s">
         <v>406</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="135" t="s">
+      <c r="O3" s="116"/>
+      <c r="P3" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="136"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="116"/>
     </row>
     <row r="4" spans="2:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="149"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="62" t="s">
         <v>27</v>
       </c>
@@ -6425,13 +6428,13 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="116"/>
+      <c r="D5" s="132"/>
       <c r="E5" s="13" t="s">
         <v>38</v>
       </c>
@@ -6485,7 +6488,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="127"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="58" t="s">
         <v>408</v>
       </c>
@@ -6509,7 +6512,7 @@
       <c r="U6" s="13"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="128"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="58" t="s">
         <v>409</v>
       </c>
@@ -6533,13 +6536,13 @@
       <c r="U7" s="13"/>
     </row>
     <row r="8" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="130"/>
+      <c r="D8" s="136"/>
       <c r="E8" s="13" t="s">
         <v>38</v>
       </c>
@@ -6593,7 +6596,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B9" s="123"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="137" t="s">
         <v>43</v>
       </c>
@@ -6647,7 +6650,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B10" s="123"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="138"/>
       <c r="D10" s="60" t="s">
         <v>420</v>
@@ -6673,7 +6676,7 @@
       <c r="U10" s="13"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B11" s="123"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="138"/>
       <c r="D11" s="60" t="s">
         <v>421</v>
@@ -6699,7 +6702,7 @@
       <c r="U11" s="13"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B12" s="123"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="138"/>
       <c r="D12" s="66" t="s">
         <v>422</v>
@@ -6741,7 +6744,7 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B13" s="123"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="139"/>
       <c r="D13" s="66" t="s">
         <v>423</v>
@@ -6782,7 +6785,7 @@
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B14" s="123"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="140" t="s">
         <v>424</v>
       </c>
@@ -6838,7 +6841,7 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B15" s="123"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="141"/>
       <c r="D15" s="66" t="s">
         <v>422</v>
@@ -6880,7 +6883,7 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B16" s="123"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="142"/>
       <c r="D16" s="66" t="s">
         <v>423</v>
@@ -6924,11 +6927,11 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B17" s="123"/>
-      <c r="C17" s="129" t="s">
+      <c r="B17" s="134"/>
+      <c r="C17" s="135" t="s">
         <v>427</v>
       </c>
-      <c r="D17" s="130"/>
+      <c r="D17" s="136"/>
       <c r="E17" s="13" t="s">
         <v>412</v>
       </c>
@@ -6954,8 +6957,8 @@
       <c r="U17" s="13"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B18" s="123"/>
-      <c r="C18" s="122" t="s">
+      <c r="B18" s="134"/>
+      <c r="C18" s="133" t="s">
         <v>428</v>
       </c>
       <c r="D18" s="66" t="s">
@@ -7004,8 +7007,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="66" t="s">
         <v>422</v>
       </c>
@@ -7044,7 +7047,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B20" s="123"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="143"/>
       <c r="D20" s="66" t="s">
         <v>423</v>
@@ -7084,11 +7087,11 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B21" s="123"/>
-      <c r="C21" s="129" t="s">
+      <c r="B21" s="134"/>
+      <c r="C21" s="135" t="s">
         <v>430</v>
       </c>
-      <c r="D21" s="130"/>
+      <c r="D21" s="136"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
@@ -7114,11 +7117,11 @@
       <c r="W21" s="52"/>
     </row>
     <row r="22" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="123"/>
-      <c r="C22" s="129" t="s">
+      <c r="B22" s="134"/>
+      <c r="C22" s="135" t="s">
         <v>431</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="136"/>
       <c r="E22" s="13" t="s">
         <v>412</v>
       </c>
@@ -7155,10 +7158,10 @@
       <c r="B23" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D23" s="116"/>
+      <c r="D23" s="132"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
         <v>14</v>
@@ -7194,13 +7197,13 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="115" t="s">
+      <c r="C24" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D24" s="116"/>
+      <c r="D24" s="132"/>
       <c r="E24" s="13" t="s">
         <v>412</v>
       </c>
@@ -7256,7 +7259,7 @@
       <c r="W24" s="52"/>
     </row>
     <row r="25" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="127"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="5" t="s">
         <v>433</v>
       </c>
@@ -7282,7 +7285,7 @@
       <c r="W25" s="52"/>
     </row>
     <row r="26" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="128"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="5" t="s">
         <v>434</v>
       </c>
@@ -7308,13 +7311,13 @@
       <c r="W26" s="52"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D27" s="116"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="13" t="s">
         <v>412</v>
       </c>
@@ -7370,11 +7373,11 @@
       <c r="W27" s="52"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B28" s="119"/>
-      <c r="C28" s="131" t="s">
+      <c r="B28" s="145"/>
+      <c r="C28" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="D28" s="132"/>
+      <c r="D28" s="147"/>
       <c r="E28" s="13" t="s">
         <v>412</v>
       </c>
@@ -7427,10 +7430,10 @@
       <c r="B29" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="129" t="s">
+      <c r="C29" s="135" t="s">
         <v>411</v>
       </c>
-      <c r="D29" s="130"/>
+      <c r="D29" s="136"/>
       <c r="E29" s="13" t="s">
         <v>412</v>
       </c>
@@ -7474,13 +7477,13 @@
       <c r="W29" s="52"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="135" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="130"/>
+      <c r="D30" s="136"/>
       <c r="E30" s="13" t="s">
         <v>412</v>
       </c>
@@ -7536,11 +7539,11 @@
       <c r="W30" s="52"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B31" s="118"/>
-      <c r="C31" s="131" t="s">
+      <c r="B31" s="148"/>
+      <c r="C31" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="D31" s="132"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="13" t="s">
         <v>412</v>
       </c>
@@ -7582,11 +7585,11 @@
       <c r="W31" s="52"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B32" s="118"/>
-      <c r="C32" s="129" t="s">
+      <c r="B32" s="148"/>
+      <c r="C32" s="135" t="s">
         <v>437</v>
       </c>
-      <c r="D32" s="130"/>
+      <c r="D32" s="136"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -7610,11 +7613,11 @@
       <c r="W32" s="52"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B33" s="118"/>
-      <c r="C33" s="129" t="s">
+      <c r="B33" s="148"/>
+      <c r="C33" s="135" t="s">
         <v>438</v>
       </c>
-      <c r="D33" s="130"/>
+      <c r="D33" s="136"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -7638,11 +7641,11 @@
       <c r="W33" s="52"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B34" s="118"/>
-      <c r="C34" s="115" t="s">
+      <c r="B34" s="148"/>
+      <c r="C34" s="131" t="s">
         <v>439</v>
       </c>
-      <c r="D34" s="116"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -7666,11 +7669,11 @@
       <c r="W34" s="52"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B35" s="119"/>
-      <c r="C35" s="115" t="s">
+      <c r="B35" s="145"/>
+      <c r="C35" s="131" t="s">
         <v>440</v>
       </c>
-      <c r="D35" s="116"/>
+      <c r="D35" s="132"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -7722,13 +7725,13 @@
       <c r="W36" s="52"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="115" t="s">
+      <c r="C37" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D37" s="116"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="13" t="s">
         <v>412</v>
       </c>
@@ -7774,8 +7777,8 @@
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B38" s="118"/>
-      <c r="C38" s="117" t="s">
+      <c r="B38" s="148"/>
+      <c r="C38" s="144" t="s">
         <v>442</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -7820,8 +7823,8 @@
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="148"/>
       <c r="D39" s="11" t="s">
         <v>443</v>
       </c>
@@ -7859,8 +7862,8 @@
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B40" s="118"/>
-      <c r="C40" s="119"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="145"/>
       <c r="D40" s="11" t="s">
         <v>444</v>
       </c>
@@ -7901,8 +7904,8 @@
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B41" s="118"/>
-      <c r="C41" s="117" t="s">
+      <c r="B41" s="148"/>
+      <c r="C41" s="144" t="s">
         <v>445</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -7943,8 +7946,8 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="148"/>
       <c r="D42" s="11" t="s">
         <v>443</v>
       </c>
@@ -7983,8 +7986,8 @@
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B43" s="118"/>
-      <c r="C43" s="119"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="145"/>
       <c r="D43" s="11" t="s">
         <v>444</v>
       </c>
@@ -8023,11 +8026,11 @@
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B44" s="118"/>
-      <c r="C44" s="115" t="s">
+      <c r="B44" s="148"/>
+      <c r="C44" s="131" t="s">
         <v>446</v>
       </c>
-      <c r="D44" s="116"/>
+      <c r="D44" s="132"/>
       <c r="E44" s="13" t="s">
         <v>412</v>
       </c>
@@ -8066,8 +8069,8 @@
       <c r="B45" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="135"/>
-      <c r="D45" s="136"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -8087,13 +8090,13 @@
       <c r="U45" s="13"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B46" s="126" t="s">
+      <c r="B46" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D46" s="116"/>
+      <c r="D46" s="132"/>
       <c r="E46" s="13" t="s">
         <v>412</v>
       </c>
@@ -8137,7 +8140,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="127"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="5" t="s">
         <v>433</v>
       </c>
@@ -8161,7 +8164,7 @@
       <c r="U47" s="13"/>
     </row>
     <row r="48" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="128"/>
+      <c r="B48" s="130"/>
       <c r="C48" s="5" t="s">
         <v>434</v>
       </c>
@@ -8188,10 +8191,10 @@
       <c r="B49" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="115" t="s">
+      <c r="C49" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D49" s="116"/>
+      <c r="D49" s="132"/>
       <c r="E49" s="13" t="s">
         <v>412</v>
       </c>
@@ -8238,10 +8241,10 @@
       <c r="B50" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="115" t="s">
+      <c r="C50" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D50" s="116"/>
+      <c r="D50" s="132"/>
       <c r="E50" s="13" t="s">
         <v>412</v>
       </c>
@@ -8298,10 +8301,10 @@
       <c r="B51" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="115" t="s">
+      <c r="C51" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D51" s="116"/>
+      <c r="D51" s="132"/>
       <c r="E51" s="13" t="s">
         <v>412</v>
       </c>
@@ -8358,10 +8361,10 @@
       <c r="B52" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="115" t="s">
+      <c r="C52" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D52" s="116"/>
+      <c r="D52" s="132"/>
       <c r="E52" s="13" t="s">
         <v>412</v>
       </c>
@@ -8418,10 +8421,10 @@
       <c r="B53" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="115" t="s">
+      <c r="C53" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D53" s="116"/>
+      <c r="D53" s="132"/>
       <c r="E53" s="13" t="s">
         <v>412</v>
       </c>
@@ -8478,10 +8481,10 @@
       <c r="B54" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="115" t="s">
+      <c r="C54" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D54" s="116"/>
+      <c r="D54" s="132"/>
       <c r="E54" s="13" t="s">
         <v>412</v>
       </c>
@@ -8538,10 +8541,10 @@
       <c r="B55" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="115" t="s">
+      <c r="C55" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D55" s="116"/>
+      <c r="D55" s="132"/>
       <c r="E55" s="13" t="s">
         <v>412</v>
       </c>
@@ -8595,7 +8598,7 @@
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="128" t="s">
         <v>448</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -8629,11 +8632,11 @@
       <c r="U56" s="13"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B57" s="127"/>
-      <c r="C57" s="129" t="s">
+      <c r="B57" s="129"/>
+      <c r="C57" s="135" t="s">
         <v>449</v>
       </c>
-      <c r="D57" s="130"/>
+      <c r="D57" s="136"/>
       <c r="E57" s="13" t="s">
         <v>412</v>
       </c>
@@ -8663,11 +8666,11 @@
       <c r="U57" s="13"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B58" s="127"/>
-      <c r="C58" s="131" t="s">
+      <c r="B58" s="129"/>
+      <c r="C58" s="146" t="s">
         <v>450</v>
       </c>
-      <c r="D58" s="132"/>
+      <c r="D58" s="147"/>
       <c r="E58" s="13" t="s">
         <v>412</v>
       </c>
@@ -8697,11 +8700,11 @@
       </c>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B59" s="127"/>
-      <c r="C59" s="131" t="s">
+      <c r="B59" s="129"/>
+      <c r="C59" s="146" t="s">
         <v>451</v>
       </c>
-      <c r="D59" s="132"/>
+      <c r="D59" s="147"/>
       <c r="E59" s="13" t="s">
         <v>412</v>
       </c>
@@ -8731,11 +8734,11 @@
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B60" s="127"/>
-      <c r="C60" s="129" t="s">
+      <c r="B60" s="129"/>
+      <c r="C60" s="135" t="s">
         <v>452</v>
       </c>
-      <c r="D60" s="130"/>
+      <c r="D60" s="136"/>
       <c r="E60" s="13" t="s">
         <v>412</v>
       </c>
@@ -8759,11 +8762,11 @@
       <c r="U60" s="13"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B61" s="127"/>
-      <c r="C61" s="129" t="s">
+      <c r="B61" s="129"/>
+      <c r="C61" s="135" t="s">
         <v>453</v>
       </c>
-      <c r="D61" s="130"/>
+      <c r="D61" s="136"/>
       <c r="E61" s="13" t="s">
         <v>412</v>
       </c>
@@ -8789,11 +8792,11 @@
       <c r="U61" s="13"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B62" s="127"/>
-      <c r="C62" s="129" t="s">
+      <c r="B62" s="129"/>
+      <c r="C62" s="135" t="s">
         <v>454</v>
       </c>
-      <c r="D62" s="130"/>
+      <c r="D62" s="136"/>
       <c r="E62" s="13" t="s">
         <v>412</v>
       </c>
@@ -8825,11 +8828,11 @@
       <c r="U62" s="13"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B63" s="127"/>
-      <c r="C63" s="115" t="s">
+      <c r="B63" s="129"/>
+      <c r="C63" s="131" t="s">
         <v>455</v>
       </c>
-      <c r="D63" s="116"/>
+      <c r="D63" s="132"/>
       <c r="E63" s="13" t="s">
         <v>412</v>
       </c>
@@ -8855,8 +8858,8 @@
       <c r="U63" s="13"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B64" s="127"/>
-      <c r="C64" s="134" t="s">
+      <c r="B64" s="129"/>
+      <c r="C64" s="150" t="s">
         <v>456</v>
       </c>
       <c r="D64" s="9" t="s">
@@ -8887,8 +8890,8 @@
       <c r="U64" s="13"/>
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B65" s="127"/>
-      <c r="C65" s="134"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="150"/>
       <c r="D65" s="11" t="s">
         <v>457</v>
       </c>
@@ -8915,8 +8918,8 @@
       <c r="U65" s="13"/>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B66" s="127"/>
-      <c r="C66" s="134"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="150"/>
       <c r="D66" s="11" t="s">
         <v>458</v>
       </c>
@@ -8943,11 +8946,11 @@
       <c r="U66" s="13"/>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B67" s="127"/>
-      <c r="C67" s="115" t="s">
+      <c r="B67" s="129"/>
+      <c r="C67" s="131" t="s">
         <v>459</v>
       </c>
-      <c r="D67" s="116"/>
+      <c r="D67" s="132"/>
       <c r="E67" s="103" t="s">
         <v>412</v>
       </c>
@@ -8971,11 +8974,11 @@
       <c r="U67" s="13"/>
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B68" s="127"/>
-      <c r="C68" s="115" t="s">
+      <c r="B68" s="129"/>
+      <c r="C68" s="131" t="s">
         <v>460</v>
       </c>
-      <c r="D68" s="116"/>
+      <c r="D68" s="132"/>
       <c r="E68" s="103" t="s">
         <v>412</v>
       </c>
@@ -8999,11 +9002,11 @@
       <c r="U68" s="13"/>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B69" s="127"/>
-      <c r="C69" s="124" t="s">
+      <c r="B69" s="129"/>
+      <c r="C69" s="151" t="s">
         <v>461</v>
       </c>
-      <c r="D69" s="125"/>
+      <c r="D69" s="152"/>
       <c r="E69" s="103" t="s">
         <v>412</v>
       </c>
@@ -9027,11 +9030,11 @@
       <c r="U69" s="13"/>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B70" s="127"/>
-      <c r="C70" s="124" t="s">
+      <c r="B70" s="129"/>
+      <c r="C70" s="151" t="s">
         <v>462</v>
       </c>
-      <c r="D70" s="125"/>
+      <c r="D70" s="152"/>
       <c r="E70" s="103" t="s">
         <v>412</v>
       </c>
@@ -9055,11 +9058,11 @@
       <c r="U70" s="13"/>
     </row>
     <row r="71" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="127"/>
-      <c r="C71" s="115" t="s">
+      <c r="B71" s="129"/>
+      <c r="C71" s="131" t="s">
         <v>463</v>
       </c>
-      <c r="D71" s="116"/>
+      <c r="D71" s="132"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
@@ -9081,11 +9084,11 @@
       <c r="U71" s="13"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B72" s="127"/>
-      <c r="C72" s="115" t="s">
+      <c r="B72" s="129"/>
+      <c r="C72" s="131" t="s">
         <v>464</v>
       </c>
-      <c r="D72" s="116"/>
+      <c r="D72" s="132"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
@@ -9107,11 +9110,11 @@
       <c r="U72" s="13"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B73" s="127"/>
-      <c r="C73" s="115" t="s">
+      <c r="B73" s="129"/>
+      <c r="C73" s="131" t="s">
         <v>465</v>
       </c>
-      <c r="D73" s="116"/>
+      <c r="D73" s="132"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
@@ -9133,8 +9136,8 @@
       <c r="U73" s="13"/>
     </row>
     <row r="74" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="127"/>
-      <c r="C74" s="133" t="s">
+      <c r="B74" s="129"/>
+      <c r="C74" s="149" t="s">
         <v>466</v>
       </c>
       <c r="D74" s="9" t="s">
@@ -9163,8 +9166,8 @@
       <c r="U74" s="13"/>
     </row>
     <row r="75" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B75" s="127"/>
-      <c r="C75" s="133"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="149"/>
       <c r="D75" s="11" t="s">
         <v>467</v>
       </c>
@@ -9191,8 +9194,8 @@
       <c r="U75" s="13"/>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B76" s="127"/>
-      <c r="C76" s="133"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="149"/>
       <c r="D76" s="11" t="s">
         <v>468</v>
       </c>
@@ -9219,11 +9222,11 @@
       <c r="U76" s="13"/>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B77" s="127"/>
-      <c r="C77" s="115" t="s">
+      <c r="B77" s="129"/>
+      <c r="C77" s="131" t="s">
         <v>469</v>
       </c>
-      <c r="D77" s="116"/>
+      <c r="D77" s="132"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="13" t="s">
@@ -9247,11 +9250,11 @@
       <c r="U77" s="13"/>
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B78" s="128"/>
-      <c r="C78" s="115" t="s">
+      <c r="B78" s="130"/>
+      <c r="C78" s="131" t="s">
         <v>470</v>
       </c>
-      <c r="D78" s="116"/>
+      <c r="D78" s="132"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="13" t="s">
@@ -9275,13 +9278,13 @@
       <c r="U78" s="13"/>
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B79" s="122" t="s">
+      <c r="B79" s="133" t="s">
         <v>471</v>
       </c>
-      <c r="C79" s="115" t="s">
+      <c r="C79" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="D79" s="116"/>
+      <c r="D79" s="132"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13" t="s">
@@ -9309,11 +9312,11 @@
       <c r="U79" s="13"/>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B80" s="123"/>
-      <c r="C80" s="115" t="s">
+      <c r="B80" s="134"/>
+      <c r="C80" s="131" t="s">
         <v>472</v>
       </c>
-      <c r="D80" s="116"/>
+      <c r="D80" s="132"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -9337,11 +9340,11 @@
       <c r="U80" s="13"/>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B81" s="123"/>
-      <c r="C81" s="115" t="s">
+      <c r="B81" s="134"/>
+      <c r="C81" s="131" t="s">
         <v>473</v>
       </c>
-      <c r="D81" s="116"/>
+      <c r="D81" s="132"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
@@ -9365,11 +9368,11 @@
       <c r="U81" s="13"/>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B82" s="123"/>
-      <c r="C82" s="115" t="s">
+      <c r="B82" s="134"/>
+      <c r="C82" s="131" t="s">
         <v>455</v>
       </c>
-      <c r="D82" s="116"/>
+      <c r="D82" s="132"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
@@ -9393,11 +9396,11 @@
       <c r="U82" s="13"/>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B83" s="123"/>
-      <c r="C83" s="115" t="s">
+      <c r="B83" s="134"/>
+      <c r="C83" s="131" t="s">
         <v>475</v>
       </c>
-      <c r="D83" s="116"/>
+      <c r="D83" s="132"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
@@ -9421,11 +9424,11 @@
       <c r="U83" s="13"/>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B84" s="123"/>
-      <c r="C84" s="115" t="s">
+      <c r="B84" s="134"/>
+      <c r="C84" s="131" t="s">
         <v>477</v>
       </c>
-      <c r="D84" s="116"/>
+      <c r="D84" s="132"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
@@ -9449,8 +9452,8 @@
       <c r="U84" s="13"/>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B85" s="123"/>
-      <c r="C85" s="117" t="s">
+      <c r="B85" s="134"/>
+      <c r="C85" s="144" t="s">
         <v>479</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -9479,8 +9482,8 @@
       <c r="U85" s="13"/>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B86" s="123"/>
-      <c r="C86" s="118"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="148"/>
       <c r="D86" s="11" t="s">
         <v>19</v>
       </c>
@@ -9507,8 +9510,8 @@
       <c r="U86" s="13"/>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B87" s="123"/>
-      <c r="C87" s="118"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="148"/>
       <c r="D87" s="11" t="s">
         <v>16</v>
       </c>
@@ -9535,8 +9538,8 @@
       <c r="U87" s="13"/>
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B88" s="123"/>
-      <c r="C88" s="118"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="148"/>
       <c r="D88" s="11" t="s">
         <v>17</v>
       </c>
@@ -9563,8 +9566,8 @@
       <c r="U88" s="13"/>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B89" s="123"/>
-      <c r="C89" s="119"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="145"/>
       <c r="D89" s="11" t="s">
         <v>18</v>
       </c>
@@ -9591,8 +9594,8 @@
       <c r="U89" s="13"/>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B90" s="123"/>
-      <c r="C90" s="117" t="s">
+      <c r="B90" s="134"/>
+      <c r="C90" s="144" t="s">
         <v>481</v>
       </c>
       <c r="D90" s="11" t="s">
@@ -9621,8 +9624,8 @@
       <c r="U90" s="13"/>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B91" s="123"/>
-      <c r="C91" s="118"/>
+      <c r="B91" s="134"/>
+      <c r="C91" s="148"/>
       <c r="D91" s="11" t="s">
         <v>19</v>
       </c>
@@ -9649,8 +9652,8 @@
       <c r="U91" s="13"/>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B92" s="123"/>
-      <c r="C92" s="118"/>
+      <c r="B92" s="134"/>
+      <c r="C92" s="148"/>
       <c r="D92" s="11" t="s">
         <v>16</v>
       </c>
@@ -9677,8 +9680,8 @@
       <c r="U92" s="13"/>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B93" s="123"/>
-      <c r="C93" s="118"/>
+      <c r="B93" s="134"/>
+      <c r="C93" s="148"/>
       <c r="D93" s="11" t="s">
         <v>17</v>
       </c>
@@ -9705,8 +9708,8 @@
       <c r="U93" s="13"/>
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B94" s="123"/>
-      <c r="C94" s="119"/>
+      <c r="B94" s="134"/>
+      <c r="C94" s="145"/>
       <c r="D94" s="11" t="s">
         <v>482</v>
       </c>
@@ -9755,13 +9758,13 @@
       <c r="U95" s="13"/>
     </row>
     <row r="96" spans="2:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="120" t="s">
+      <c r="B96" s="154" t="s">
         <v>483</v>
       </c>
-      <c r="C96" s="120" t="s">
+      <c r="C96" s="154" t="s">
         <v>484</v>
       </c>
-      <c r="D96" s="120"/>
+      <c r="D96" s="154"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -9783,11 +9786,11 @@
       <c r="U96" s="13"/>
     </row>
     <row r="97" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B97" s="120"/>
-      <c r="C97" s="121" t="s">
+      <c r="B97" s="154"/>
+      <c r="C97" s="155" t="s">
         <v>485</v>
       </c>
-      <c r="D97" s="121"/>
+      <c r="D97" s="155"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -9809,11 +9812,11 @@
       <c r="U97" s="13"/>
     </row>
     <row r="98" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B98" s="120"/>
-      <c r="C98" s="120" t="s">
+      <c r="B98" s="154"/>
+      <c r="C98" s="154" t="s">
         <v>486</v>
       </c>
-      <c r="D98" s="120"/>
+      <c r="D98" s="154"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -9835,11 +9838,11 @@
       <c r="U98" s="13"/>
     </row>
     <row r="99" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B99" s="120"/>
-      <c r="C99" s="120" t="s">
+      <c r="B99" s="154"/>
+      <c r="C99" s="154" t="s">
         <v>487</v>
       </c>
-      <c r="D99" s="120"/>
+      <c r="D99" s="154"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -9861,11 +9864,11 @@
       <c r="U99" s="13"/>
     </row>
     <row r="100" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B100" s="120"/>
-      <c r="C100" s="120" t="s">
+      <c r="B100" s="154"/>
+      <c r="C100" s="154" t="s">
         <v>488</v>
       </c>
-      <c r="D100" s="120"/>
+      <c r="D100" s="154"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -9887,11 +9890,11 @@
       <c r="U100" s="13"/>
     </row>
     <row r="101" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B101" s="120"/>
-      <c r="C101" s="120" t="s">
+      <c r="B101" s="154"/>
+      <c r="C101" s="154" t="s">
         <v>489</v>
       </c>
-      <c r="D101" s="120"/>
+      <c r="D101" s="154"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -9914,8 +9917,8 @@
     </row>
     <row r="102" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B102" s="32"/>
-      <c r="C102" s="114"/>
-      <c r="D102" s="114"/>
+      <c r="C102" s="153"/>
+      <c r="D102" s="153"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -9940,57 +9943,29 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B8:B22"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B79:B94"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C77:D77"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
@@ -10007,29 +9982,57 @@
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="B79:B94"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10043,9 +10046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CO184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X71" sqref="X71:Y71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10089,31 +10092,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:93" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="182"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
       <c r="E2" s="33"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
       <c r="AD2" s="35"/>
       <c r="AE2" s="35"/>
       <c r="AG2" s="35"/>
@@ -10130,130 +10133,130 @@
       <c r="AR2" s="35"/>
     </row>
     <row r="3" spans="2:93" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="186"/>
-      <c r="E3" s="189" t="s">
+      <c r="D3" s="164"/>
+      <c r="E3" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="175" t="s">
+      <c r="F3" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="175" t="s">
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="191" t="s">
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="172" t="s">
         <v>490</v>
       </c>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="191" t="s">
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="172" t="s">
         <v>491</v>
       </c>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="192"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="192"/>
-      <c r="AC3" s="192"/>
-      <c r="AD3" s="174" t="s">
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="174"/>
-      <c r="AK3" s="174"/>
-      <c r="AL3" s="174"/>
-      <c r="AM3" s="174"/>
-      <c r="AN3" s="174"/>
-      <c r="AO3" s="174"/>
-      <c r="AP3" s="174"/>
-      <c r="AQ3" s="174"/>
-      <c r="AR3" s="174"/>
-      <c r="AS3" s="174"/>
-      <c r="AT3" s="175" t="s">
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="181"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="181"/>
+      <c r="AJ3" s="181"/>
+      <c r="AK3" s="181"/>
+      <c r="AL3" s="181"/>
+      <c r="AM3" s="181"/>
+      <c r="AN3" s="181"/>
+      <c r="AO3" s="181"/>
+      <c r="AP3" s="181"/>
+      <c r="AQ3" s="181"/>
+      <c r="AR3" s="181"/>
+      <c r="AS3" s="181"/>
+      <c r="AT3" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="AU3" s="176"/>
-      <c r="AV3" s="176"/>
-      <c r="AW3" s="176"/>
-      <c r="AX3" s="176"/>
-      <c r="AY3" s="176"/>
-      <c r="AZ3" s="176"/>
-      <c r="BA3" s="176"/>
-      <c r="BB3" s="176"/>
-      <c r="BC3" s="176"/>
-      <c r="BD3" s="176"/>
-      <c r="BE3" s="176"/>
-      <c r="BF3" s="176"/>
-      <c r="BG3" s="176"/>
-      <c r="BH3" s="177"/>
-      <c r="BI3" s="173" t="s">
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="170"/>
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="170"/>
+      <c r="AY3" s="170"/>
+      <c r="AZ3" s="170"/>
+      <c r="BA3" s="170"/>
+      <c r="BB3" s="170"/>
+      <c r="BC3" s="170"/>
+      <c r="BD3" s="170"/>
+      <c r="BE3" s="170"/>
+      <c r="BF3" s="170"/>
+      <c r="BG3" s="170"/>
+      <c r="BH3" s="171"/>
+      <c r="BI3" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="BJ3" s="173"/>
-      <c r="BK3" s="173"/>
-      <c r="BL3" s="173"/>
-      <c r="BM3" s="173"/>
-      <c r="BN3" s="173"/>
-      <c r="BO3" s="173"/>
-      <c r="BP3" s="173"/>
-      <c r="BQ3" s="173"/>
-      <c r="BR3" s="173"/>
-      <c r="BS3" s="173"/>
-      <c r="BT3" s="173"/>
-      <c r="BU3" s="173"/>
-      <c r="BV3" s="173" t="s">
+      <c r="BJ3" s="179"/>
+      <c r="BK3" s="179"/>
+      <c r="BL3" s="179"/>
+      <c r="BM3" s="179"/>
+      <c r="BN3" s="179"/>
+      <c r="BO3" s="179"/>
+      <c r="BP3" s="179"/>
+      <c r="BQ3" s="179"/>
+      <c r="BR3" s="179"/>
+      <c r="BS3" s="179"/>
+      <c r="BT3" s="179"/>
+      <c r="BU3" s="179"/>
+      <c r="BV3" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="BW3" s="173"/>
-      <c r="BX3" s="173"/>
-      <c r="BY3" s="173"/>
-      <c r="BZ3" s="173"/>
-      <c r="CA3" s="173"/>
-      <c r="CB3" s="173" t="s">
+      <c r="BW3" s="179"/>
+      <c r="BX3" s="179"/>
+      <c r="BY3" s="179"/>
+      <c r="BZ3" s="179"/>
+      <c r="CA3" s="179"/>
+      <c r="CB3" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="CC3" s="173"/>
-      <c r="CD3" s="173"/>
-      <c r="CE3" s="173"/>
-      <c r="CF3" s="173"/>
-      <c r="CG3" s="173"/>
-      <c r="CH3" s="173"/>
-      <c r="CI3" s="173"/>
-      <c r="CJ3" s="173"/>
-      <c r="CK3" s="173"/>
-      <c r="CL3" s="173" t="s">
+      <c r="CC3" s="179"/>
+      <c r="CD3" s="179"/>
+      <c r="CE3" s="179"/>
+      <c r="CF3" s="179"/>
+      <c r="CG3" s="179"/>
+      <c r="CH3" s="179"/>
+      <c r="CI3" s="179"/>
+      <c r="CJ3" s="179"/>
+      <c r="CK3" s="179"/>
+      <c r="CL3" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="CM3" s="173"/>
-      <c r="CN3" s="173"/>
-      <c r="CO3" s="173"/>
+      <c r="CM3" s="179"/>
+      <c r="CN3" s="179"/>
+      <c r="CO3" s="179"/>
     </row>
     <row r="4" spans="2:93" s="34" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="184"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="190"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="168"/>
       <c r="F4" s="37" t="s">
         <v>492</v>
       </c>
@@ -10520,13 +10523,13 @@
       </c>
     </row>
     <row r="5" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="160"/>
+      <c r="D5" s="175"/>
       <c r="E5" s="13" t="s">
         <v>38</v>
       </c>
@@ -10788,7 +10791,7 @@
       </c>
     </row>
     <row r="6" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="123"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="43" t="s">
         <v>408</v>
       </c>
@@ -10884,7 +10887,7 @@
       <c r="CO6" s="13"/>
     </row>
     <row r="7" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="123"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="43" t="s">
         <v>409</v>
       </c>
@@ -10980,11 +10983,11 @@
       <c r="CO7" s="13"/>
     </row>
     <row r="8" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="123"/>
-      <c r="C8" s="114" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="153" t="s">
         <v>550</v>
       </c>
-      <c r="D8" s="159"/>
+      <c r="D8" s="180"/>
       <c r="E8" s="9"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -11174,13 +11177,13 @@
       <c r="CO9" s="9"/>
     </row>
     <row r="10" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="168" t="s">
+      <c r="B10" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="160"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="13" t="s">
         <v>38</v>
       </c>
@@ -11438,7 +11441,7 @@
       </c>
     </row>
     <row r="11" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="168"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="137" t="s">
         <v>43</v>
       </c>
@@ -11599,7 +11602,7 @@
       </c>
     </row>
     <row r="12" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="168"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="138"/>
       <c r="D12" s="46" t="s">
         <v>44</v>
@@ -11697,7 +11700,7 @@
       <c r="CO12" s="13"/>
     </row>
     <row r="13" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="168"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="138"/>
       <c r="D13" s="46" t="s">
         <v>45</v>
@@ -11795,7 +11798,7 @@
       <c r="CO13" s="13"/>
     </row>
     <row r="14" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="168"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="138"/>
       <c r="D14" s="102" t="s">
         <v>46</v>
@@ -11951,7 +11954,7 @@
       </c>
     </row>
     <row r="15" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="168"/>
+      <c r="B15" s="176"/>
       <c r="C15" s="139"/>
       <c r="D15" s="102" t="s">
         <v>47</v>
@@ -12077,7 +12080,7 @@
       <c r="CO15" s="13"/>
     </row>
     <row r="16" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="168"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="140" t="s">
         <v>48</v>
       </c>
@@ -12211,7 +12214,7 @@
       </c>
     </row>
     <row r="17" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="168"/>
+      <c r="B17" s="176"/>
       <c r="C17" s="141"/>
       <c r="D17" s="102" t="s">
         <v>46</v>
@@ -12340,7 +12343,7 @@
       </c>
     </row>
     <row r="18" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="168"/>
+      <c r="B18" s="176"/>
       <c r="C18" s="142"/>
       <c r="D18" s="102" t="s">
         <v>47</v>
@@ -12456,11 +12459,11 @@
       <c r="CO18" s="13"/>
     </row>
     <row r="19" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="168"/>
-      <c r="C19" s="129" t="s">
+      <c r="B19" s="176"/>
+      <c r="C19" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="160"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="13" t="s">
         <v>38</v>
       </c>
@@ -12556,8 +12559,8 @@
       <c r="CO19" s="13"/>
     </row>
     <row r="20" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="168"/>
-      <c r="C20" s="122" t="s">
+      <c r="B20" s="176"/>
+      <c r="C20" s="133" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="46" t="s">
@@ -12670,8 +12673,8 @@
       <c r="CO20" s="13"/>
     </row>
     <row r="21" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="168"/>
-      <c r="C21" s="123"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="46" t="s">
         <v>46</v>
       </c>
@@ -12776,7 +12779,7 @@
       <c r="CO21" s="13"/>
     </row>
     <row r="22" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="168"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="143"/>
       <c r="D22" s="46" t="s">
         <v>47</v>
@@ -12882,11 +12885,11 @@
       <c r="CO22" s="13"/>
     </row>
     <row r="23" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="168"/>
-      <c r="C23" s="129" t="s">
+      <c r="B23" s="176"/>
+      <c r="C23" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="160"/>
+      <c r="D23" s="175"/>
       <c r="E23" s="13"/>
       <c r="F23" s="3" t="s">
         <v>492</v>
@@ -12984,11 +12987,11 @@
       <c r="CO23" s="13"/>
     </row>
     <row r="24" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="168"/>
-      <c r="C24" s="129" t="s">
+      <c r="B24" s="176"/>
+      <c r="C24" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="160"/>
+      <c r="D24" s="175"/>
       <c r="E24" s="13" t="s">
         <v>38</v>
       </c>
@@ -13108,7 +13111,7 @@
       <c r="CO24" s="13"/>
     </row>
     <row r="25" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B25" s="168"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="43" t="s">
         <v>552</v>
       </c>
@@ -13206,7 +13209,7 @@
       <c r="CO25" s="9"/>
     </row>
     <row r="26" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B26" s="168"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="43" t="s">
         <v>553</v>
       </c>
@@ -13304,7 +13307,7 @@
       <c r="CO26" s="9"/>
     </row>
     <row r="27" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B27" s="168"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="43" t="s">
         <v>554</v>
       </c>
@@ -13402,7 +13405,7 @@
       <c r="CO27" s="9"/>
     </row>
     <row r="28" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B28" s="168"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="43" t="s">
         <v>555</v>
       </c>
@@ -13500,7 +13503,7 @@
       <c r="CO28" s="9"/>
     </row>
     <row r="29" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B29" s="168"/>
+      <c r="B29" s="176"/>
       <c r="C29" s="43" t="s">
         <v>556</v>
       </c>
@@ -13605,7 +13608,7 @@
       <c r="CO29" s="9"/>
     </row>
     <row r="30" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B30" s="168"/>
+      <c r="B30" s="176"/>
       <c r="C30" s="43" t="s">
         <v>557</v>
       </c>
@@ -13703,7 +13706,7 @@
       <c r="CO30" s="9"/>
     </row>
     <row r="31" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B31" s="168"/>
+      <c r="B31" s="176"/>
       <c r="C31" s="12" t="s">
         <v>558</v>
       </c>
@@ -13804,10 +13807,10 @@
       <c r="B32" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="160"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="13"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -13991,13 +13994,13 @@
       </c>
     </row>
     <row r="33" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="168" t="s">
+      <c r="B33" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="129" t="s">
+      <c r="C33" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="160"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="13" t="s">
         <v>38</v>
       </c>
@@ -14187,7 +14190,7 @@
       <c r="CO33" s="13"/>
     </row>
     <row r="34" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="168"/>
+      <c r="B34" s="176"/>
       <c r="C34" s="43" t="s">
         <v>408</v>
       </c>
@@ -14283,7 +14286,7 @@
       <c r="CO34" s="13"/>
     </row>
     <row r="35" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="168"/>
+      <c r="B35" s="176"/>
       <c r="C35" s="43" t="s">
         <v>409</v>
       </c>
@@ -14379,13 +14382,13 @@
       <c r="CO35" s="13"/>
     </row>
     <row r="36" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="129" t="s">
+      <c r="C36" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="160"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="13" t="s">
         <v>38</v>
       </c>
@@ -14642,10 +14645,10 @@
     </row>
     <row r="37" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="143"/>
-      <c r="C37" s="131" t="s">
+      <c r="C37" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="170"/>
+      <c r="D37" s="177"/>
       <c r="E37" s="13" t="s">
         <v>38</v>
       </c>
@@ -14882,10 +14885,10 @@
       <c r="B38" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="129" t="s">
+      <c r="C38" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="160"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="13" t="s">
         <v>38</v>
       </c>
@@ -15031,13 +15034,13 @@
       <c r="CO38" s="13"/>
     </row>
     <row r="39" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="121" t="s">
+      <c r="C39" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="129"/>
+      <c r="D39" s="135"/>
       <c r="E39" s="13" t="s">
         <v>38</v>
       </c>
@@ -15263,11 +15266,11 @@
       </c>
     </row>
     <row r="40" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="121"/>
-      <c r="C40" s="194" t="s">
+      <c r="B40" s="155"/>
+      <c r="C40" s="178" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="131"/>
+      <c r="D40" s="146"/>
       <c r="E40" s="13" t="s">
         <v>38</v>
       </c>
@@ -15429,7 +15432,7 @@
       </c>
     </row>
     <row r="41" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B41" s="121"/>
+      <c r="B41" s="155"/>
       <c r="C41" s="66" t="s">
         <v>561</v>
       </c>
@@ -15537,11 +15540,11 @@
       <c r="CO41" s="9"/>
     </row>
     <row r="42" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="121"/>
-      <c r="C42" s="121" t="s">
+      <c r="B42" s="155"/>
+      <c r="C42" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="129"/>
+      <c r="D42" s="135"/>
       <c r="E42" s="13"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -15637,11 +15640,11 @@
       <c r="CO42" s="13"/>
     </row>
     <row r="43" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="121"/>
-      <c r="C43" s="121" t="s">
+      <c r="B43" s="155"/>
+      <c r="C43" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="129"/>
+      <c r="D43" s="135"/>
       <c r="E43" s="13"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -15739,11 +15742,11 @@
       <c r="CO43" s="13"/>
     </row>
     <row r="44" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="121"/>
-      <c r="C44" s="121" t="s">
+      <c r="B44" s="155"/>
+      <c r="C44" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="129"/>
+      <c r="D44" s="135"/>
       <c r="E44" s="13"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -15837,11 +15840,11 @@
       <c r="CO44" s="13"/>
     </row>
     <row r="45" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="121"/>
-      <c r="C45" s="121" t="s">
+      <c r="B45" s="155"/>
+      <c r="C45" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="129"/>
+      <c r="D45" s="135"/>
       <c r="E45" s="13"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -15935,11 +15938,11 @@
       <c r="CO45" s="13"/>
     </row>
     <row r="46" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B46" s="121"/>
-      <c r="C46" s="114" t="s">
+      <c r="B46" s="155"/>
+      <c r="C46" s="153" t="s">
         <v>562</v>
       </c>
-      <c r="D46" s="165"/>
+      <c r="D46" s="182"/>
       <c r="E46" s="9"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -16033,11 +16036,11 @@
       <c r="CO46" s="9"/>
     </row>
     <row r="47" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B47" s="121"/>
-      <c r="C47" s="114" t="s">
+      <c r="B47" s="155"/>
+      <c r="C47" s="153" t="s">
         <v>563</v>
       </c>
-      <c r="D47" s="165"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="9"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -16131,11 +16134,11 @@
       <c r="CO47" s="9"/>
     </row>
     <row r="48" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B48" s="121"/>
-      <c r="C48" s="114" t="s">
+      <c r="B48" s="155"/>
+      <c r="C48" s="153" t="s">
         <v>564</v>
       </c>
-      <c r="D48" s="165"/>
+      <c r="D48" s="182"/>
       <c r="E48" s="9"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -16229,11 +16232,11 @@
       <c r="CO48" s="9"/>
     </row>
     <row r="49" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B49" s="121"/>
-      <c r="C49" s="114" t="s">
+      <c r="B49" s="155"/>
+      <c r="C49" s="153" t="s">
         <v>565</v>
       </c>
-      <c r="D49" s="165"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="9"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
@@ -16327,11 +16330,11 @@
       <c r="CO49" s="9"/>
     </row>
     <row r="50" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B50" s="121"/>
-      <c r="C50" s="114" t="s">
+      <c r="B50" s="155"/>
+      <c r="C50" s="153" t="s">
         <v>566</v>
       </c>
-      <c r="D50" s="165"/>
+      <c r="D50" s="182"/>
       <c r="E50" s="9"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -16529,13 +16532,13 @@
       <c r="CO51" s="13"/>
     </row>
     <row r="52" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="122" t="s">
+      <c r="B52" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="129" t="s">
+      <c r="C52" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="160"/>
+      <c r="D52" s="175"/>
       <c r="E52" s="13" t="s">
         <v>38</v>
       </c>
@@ -16745,8 +16748,8 @@
       </c>
     </row>
     <row r="53" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="123"/>
-      <c r="C53" s="122" t="s">
+      <c r="B53" s="134"/>
+      <c r="C53" s="133" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="43" t="s">
@@ -16911,8 +16914,8 @@
       <c r="CO53" s="13"/>
     </row>
     <row r="54" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="123"/>
-      <c r="C54" s="123"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
       <c r="D54" s="43" t="s">
         <v>62</v>
       </c>
@@ -17073,7 +17076,7 @@
       <c r="CO54" s="13"/>
     </row>
     <row r="55" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="123"/>
+      <c r="B55" s="134"/>
       <c r="C55" s="143"/>
       <c r="D55" s="43" t="s">
         <v>63</v>
@@ -17235,8 +17238,8 @@
       <c r="CO55" s="13"/>
     </row>
     <row r="56" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="123"/>
-      <c r="C56" s="122" t="s">
+      <c r="B56" s="134"/>
+      <c r="C56" s="133" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="43" t="s">
@@ -17423,8 +17426,8 @@
       </c>
     </row>
     <row r="57" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="123"/>
-      <c r="C57" s="123"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="134"/>
       <c r="D57" s="43" t="s">
         <v>62</v>
       </c>
@@ -17609,7 +17612,7 @@
       </c>
     </row>
     <row r="58" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="123"/>
+      <c r="B58" s="134"/>
       <c r="C58" s="143"/>
       <c r="D58" s="43" t="s">
         <v>63</v>
@@ -17787,11 +17790,11 @@
       </c>
     </row>
     <row r="59" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="123"/>
-      <c r="C59" s="129" t="s">
+      <c r="B59" s="134"/>
+      <c r="C59" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="160"/>
+      <c r="D59" s="175"/>
       <c r="E59" s="13" t="s">
         <v>38</v>
       </c>
@@ -17948,8 +17951,8 @@
       <c r="B60" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="171"/>
-      <c r="D60" s="172"/>
+      <c r="C60" s="183"/>
+      <c r="D60" s="184"/>
       <c r="E60" s="9"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
@@ -18041,13 +18044,13 @@
       <c r="CO60" s="13"/>
     </row>
     <row r="61" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="122" t="s">
+      <c r="B61" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="129" t="s">
+      <c r="C61" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="160"/>
+      <c r="D61" s="175"/>
       <c r="E61" s="13" t="s">
         <v>38</v>
       </c>
@@ -18257,7 +18260,7 @@
       </c>
     </row>
     <row r="62" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="123"/>
+      <c r="B62" s="134"/>
       <c r="C62" s="43" t="s">
         <v>408</v>
       </c>
@@ -18452,10 +18455,10 @@
       <c r="B64" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="129" t="s">
+      <c r="C64" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="160"/>
+      <c r="D64" s="175"/>
       <c r="E64" s="13" t="s">
         <v>38</v>
       </c>
@@ -18626,10 +18629,10 @@
       <c r="B65" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="129" t="s">
+      <c r="C65" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="160"/>
+      <c r="D65" s="175"/>
       <c r="E65" s="13" t="s">
         <v>38</v>
       </c>
@@ -18898,10 +18901,10 @@
       <c r="B66" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="129" t="s">
+      <c r="C66" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="160"/>
+      <c r="D66" s="175"/>
       <c r="E66" s="13" t="s">
         <v>38</v>
       </c>
@@ -19166,10 +19169,10 @@
       <c r="B67" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="129" t="s">
+      <c r="C67" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="160"/>
+      <c r="D67" s="175"/>
       <c r="E67" s="13" t="s">
         <v>38</v>
       </c>
@@ -19434,10 +19437,10 @@
       <c r="B68" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="129" t="s">
+      <c r="C68" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D68" s="160"/>
+      <c r="D68" s="175"/>
       <c r="E68" s="13" t="s">
         <v>38</v>
       </c>
@@ -19495,10 +19498,10 @@
       <c r="W68" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="X68" s="30" t="s">
+      <c r="X68" s="196" t="s">
         <v>526</v>
       </c>
-      <c r="Y68" s="30" t="s">
+      <c r="Y68" s="196" t="s">
         <v>527</v>
       </c>
       <c r="Z68" s="30" t="s">
@@ -19706,10 +19709,10 @@
       <c r="B69" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="129" t="s">
+      <c r="C69" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D69" s="160"/>
+      <c r="D69" s="175"/>
       <c r="E69" s="13" t="s">
         <v>38</v>
       </c>
@@ -19767,10 +19770,10 @@
       <c r="W69" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="X69" s="30" t="s">
+      <c r="X69" s="196" t="s">
         <v>526</v>
       </c>
-      <c r="Y69" s="30" t="s">
+      <c r="Y69" s="196" t="s">
         <v>527</v>
       </c>
       <c r="Z69" s="30" t="s">
@@ -19978,10 +19981,10 @@
       <c r="B70" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="129" t="s">
+      <c r="C70" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="160"/>
+      <c r="D70" s="175"/>
       <c r="E70" s="13" t="s">
         <v>38</v>
       </c>
@@ -20243,7 +20246,7 @@
       </c>
     </row>
     <row r="71" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="156" t="s">
+      <c r="B71" s="186" t="s">
         <v>67</v>
       </c>
       <c r="C71" s="43" t="s">
@@ -20271,10 +20274,10 @@
       <c r="W71" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="X71" s="30" t="s">
+      <c r="X71" s="196" t="s">
         <v>526</v>
       </c>
-      <c r="Y71" s="30" t="s">
+      <c r="Y71" s="196" t="s">
         <v>527</v>
       </c>
       <c r="Z71" s="30" t="s">
@@ -20357,11 +20360,11 @@
       <c r="CO71" s="13"/>
     </row>
     <row r="72" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="157"/>
-      <c r="C72" s="129" t="s">
+      <c r="B72" s="187"/>
+      <c r="C72" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="160"/>
+      <c r="D72" s="175"/>
       <c r="E72" s="13" t="s">
         <v>38</v>
       </c>
@@ -20469,11 +20472,11 @@
       </c>
     </row>
     <row r="73" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="157"/>
-      <c r="C73" s="131" t="s">
+      <c r="B73" s="187"/>
+      <c r="C73" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="170"/>
+      <c r="D73" s="177"/>
       <c r="E73" s="13" t="s">
         <v>38</v>
       </c>
@@ -20583,11 +20586,11 @@
       <c r="CO73" s="13"/>
     </row>
     <row r="74" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="157"/>
-      <c r="C74" s="131" t="s">
+      <c r="B74" s="187"/>
+      <c r="C74" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="170"/>
+      <c r="D74" s="177"/>
       <c r="E74" s="13" t="s">
         <v>38</v>
       </c>
@@ -20697,11 +20700,11 @@
       <c r="CO74" s="13"/>
     </row>
     <row r="75" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="157"/>
-      <c r="C75" s="129" t="s">
+      <c r="B75" s="187"/>
+      <c r="C75" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="160"/>
+      <c r="D75" s="175"/>
       <c r="E75" s="13" t="s">
         <v>38</v>
       </c>
@@ -20801,11 +20804,11 @@
       <c r="CO75" s="13"/>
     </row>
     <row r="76" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="157"/>
-      <c r="C76" s="129" t="s">
+      <c r="B76" s="187"/>
+      <c r="C76" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="160"/>
+      <c r="D76" s="175"/>
       <c r="E76" s="13" t="s">
         <v>38</v>
       </c>
@@ -20901,11 +20904,11 @@
       <c r="CO76" s="13"/>
     </row>
     <row r="77" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="157"/>
-      <c r="C77" s="129" t="s">
+      <c r="B77" s="187"/>
+      <c r="C77" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="160"/>
+      <c r="D77" s="175"/>
       <c r="E77" s="13" t="s">
         <v>38</v>
       </c>
@@ -21005,11 +21008,11 @@
       <c r="CO77" s="13"/>
     </row>
     <row r="78" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="157"/>
-      <c r="C78" s="129" t="s">
+      <c r="B78" s="187"/>
+      <c r="C78" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="160"/>
+      <c r="D78" s="175"/>
       <c r="E78" s="13" t="s">
         <v>38</v>
       </c>
@@ -21105,8 +21108,8 @@
       <c r="CO78" s="13"/>
     </row>
     <row r="79" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="157"/>
-      <c r="C79" s="169" t="s">
+      <c r="B79" s="187"/>
+      <c r="C79" s="185" t="s">
         <v>75</v>
       </c>
       <c r="D79" s="46" t="s">
@@ -21209,8 +21212,8 @@
       <c r="CO79" s="13"/>
     </row>
     <row r="80" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="157"/>
-      <c r="C80" s="169"/>
+      <c r="B80" s="187"/>
+      <c r="C80" s="185"/>
       <c r="D80" s="43" t="s">
         <v>76</v>
       </c>
@@ -21307,8 +21310,8 @@
       <c r="CO80" s="13"/>
     </row>
     <row r="81" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="157"/>
-      <c r="C81" s="169"/>
+      <c r="B81" s="187"/>
+      <c r="C81" s="185"/>
       <c r="D81" s="43" t="s">
         <v>77</v>
       </c>
@@ -21405,11 +21408,11 @@
       <c r="CO81" s="13"/>
     </row>
     <row r="82" spans="2:93" s="109" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="157"/>
-      <c r="C82" s="178" t="s">
+      <c r="B82" s="187"/>
+      <c r="C82" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="179"/>
+      <c r="D82" s="157"/>
       <c r="E82" s="110" t="s">
         <v>38</v>
       </c>
@@ -21503,11 +21506,11 @@
       <c r="CO82" s="108"/>
     </row>
     <row r="83" spans="2:93" s="109" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="157"/>
-      <c r="C83" s="178" t="s">
+      <c r="B83" s="187"/>
+      <c r="C83" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="D83" s="179"/>
+      <c r="D83" s="157"/>
       <c r="E83" s="110" t="s">
         <v>38</v>
       </c>
@@ -21601,11 +21604,11 @@
       <c r="CO83" s="108"/>
     </row>
     <row r="84" spans="2:93" s="109" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="157"/>
-      <c r="C84" s="178" t="s">
+      <c r="B84" s="187"/>
+      <c r="C84" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="179"/>
+      <c r="D84" s="157"/>
       <c r="E84" s="110" t="s">
         <v>38</v>
       </c>
@@ -21699,7 +21702,7 @@
       <c r="CO84" s="108"/>
     </row>
     <row r="85" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="157"/>
+      <c r="B85" s="187"/>
       <c r="C85" s="43" t="s">
         <v>81</v>
       </c>
@@ -21797,7 +21800,7 @@
       <c r="CO85" s="13"/>
     </row>
     <row r="86" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="157"/>
+      <c r="B86" s="187"/>
       <c r="C86" s="43" t="s">
         <v>82</v>
       </c>
@@ -21893,11 +21896,11 @@
       <c r="CO86" s="13"/>
     </row>
     <row r="87" spans="2:93" s="113" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="157"/>
-      <c r="C87" s="163" t="s">
+      <c r="B87" s="187"/>
+      <c r="C87" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="164"/>
+      <c r="D87" s="190"/>
       <c r="E87" s="111" t="s">
         <v>38</v>
       </c>
@@ -21993,11 +21996,11 @@
       <c r="CO87" s="111"/>
     </row>
     <row r="88" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="157"/>
-      <c r="C88" s="129" t="s">
+      <c r="B88" s="187"/>
+      <c r="C88" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="160"/>
+      <c r="D88" s="175"/>
       <c r="E88" s="13"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -22089,11 +22092,11 @@
       <c r="CO88" s="13"/>
     </row>
     <row r="89" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="157"/>
-      <c r="C89" s="129" t="s">
+      <c r="B89" s="187"/>
+      <c r="C89" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="D89" s="160"/>
+      <c r="D89" s="175"/>
       <c r="E89" s="13"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -22185,11 +22188,11 @@
       <c r="CO89" s="13"/>
     </row>
     <row r="90" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="157"/>
-      <c r="C90" s="129" t="s">
+      <c r="B90" s="187"/>
+      <c r="C90" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="D90" s="160"/>
+      <c r="D90" s="175"/>
       <c r="E90" s="13"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -22283,11 +22286,11 @@
       <c r="CO90" s="13"/>
     </row>
     <row r="91" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="157"/>
-      <c r="C91" s="129" t="s">
+      <c r="B91" s="187"/>
+      <c r="C91" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="160"/>
+      <c r="D91" s="175"/>
       <c r="E91" s="13"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -22379,11 +22382,11 @@
       <c r="CO91" s="13"/>
     </row>
     <row r="92" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="157"/>
-      <c r="C92" s="129" t="s">
+      <c r="B92" s="187"/>
+      <c r="C92" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="D92" s="160"/>
+      <c r="D92" s="175"/>
       <c r="E92" s="13"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -22477,8 +22480,8 @@
       <c r="CO92" s="13"/>
     </row>
     <row r="93" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="157"/>
-      <c r="C93" s="168" t="s">
+      <c r="B93" s="187"/>
+      <c r="C93" s="176" t="s">
         <v>89</v>
       </c>
       <c r="D93" s="46" t="s">
@@ -22577,8 +22580,8 @@
       <c r="CO93" s="13"/>
     </row>
     <row r="94" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="157"/>
-      <c r="C94" s="168"/>
+      <c r="B94" s="187"/>
+      <c r="C94" s="176"/>
       <c r="D94" s="43" t="s">
         <v>90</v>
       </c>
@@ -22675,8 +22678,8 @@
       <c r="CO94" s="13"/>
     </row>
     <row r="95" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="157"/>
-      <c r="C95" s="168"/>
+      <c r="B95" s="187"/>
+      <c r="C95" s="176"/>
       <c r="D95" s="43" t="s">
         <v>91</v>
       </c>
@@ -22773,11 +22776,11 @@
       <c r="CO95" s="13"/>
     </row>
     <row r="96" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="157"/>
-      <c r="C96" s="129" t="s">
+      <c r="B96" s="187"/>
+      <c r="C96" s="135" t="s">
         <v>567</v>
       </c>
-      <c r="D96" s="160"/>
+      <c r="D96" s="175"/>
       <c r="E96" s="13"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -22871,11 +22874,11 @@
       <c r="CO96" s="13"/>
     </row>
     <row r="97" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="157"/>
-      <c r="C97" s="129" t="s">
+      <c r="B97" s="187"/>
+      <c r="C97" s="135" t="s">
         <v>568</v>
       </c>
-      <c r="D97" s="160"/>
+      <c r="D97" s="175"/>
       <c r="E97" s="13"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -22969,7 +22972,7 @@
       <c r="CO97" s="13"/>
     </row>
     <row r="98" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B98" s="157"/>
+      <c r="B98" s="187"/>
       <c r="C98" s="12" t="s">
         <v>569</v>
       </c>
@@ -23067,7 +23070,7 @@
       <c r="CO98" s="9"/>
     </row>
     <row r="99" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B99" s="157"/>
+      <c r="B99" s="187"/>
       <c r="C99" s="48" t="s">
         <v>570</v>
       </c>
@@ -23165,7 +23168,7 @@
       <c r="CO99" s="9"/>
     </row>
     <row r="100" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B100" s="157"/>
+      <c r="B100" s="187"/>
       <c r="C100" s="48" t="s">
         <v>571</v>
       </c>
@@ -23263,7 +23266,7 @@
       <c r="CO100" s="9"/>
     </row>
     <row r="101" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B101" s="157"/>
+      <c r="B101" s="187"/>
       <c r="C101" s="48" t="s">
         <v>572</v>
       </c>
@@ -23361,7 +23364,7 @@
       <c r="CO101" s="9"/>
     </row>
     <row r="102" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B102" s="157"/>
+      <c r="B102" s="187"/>
       <c r="C102" s="48" t="s">
         <v>573</v>
       </c>
@@ -23459,7 +23462,7 @@
       <c r="CO102" s="9"/>
     </row>
     <row r="103" spans="2:93" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="157"/>
+      <c r="B103" s="187"/>
       <c r="C103" s="48" t="s">
         <v>574</v>
       </c>
@@ -23557,7 +23560,7 @@
       <c r="CO103" s="9"/>
     </row>
     <row r="104" spans="2:93" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="157"/>
+      <c r="B104" s="187"/>
       <c r="C104" s="48" t="s">
         <v>575</v>
       </c>
@@ -23655,7 +23658,7 @@
       <c r="CO104" s="9"/>
     </row>
     <row r="105" spans="2:93" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="157"/>
+      <c r="B105" s="187"/>
       <c r="C105" s="48" t="s">
         <v>576</v>
       </c>
@@ -23753,7 +23756,7 @@
       <c r="CO105" s="9"/>
     </row>
     <row r="106" spans="2:93" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="157"/>
+      <c r="B106" s="187"/>
       <c r="C106" s="48" t="s">
         <v>577</v>
       </c>
@@ -23851,7 +23854,7 @@
       <c r="CO106" s="9"/>
     </row>
     <row r="107" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B107" s="157"/>
+      <c r="B107" s="187"/>
       <c r="C107" s="48" t="s">
         <v>578</v>
       </c>
@@ -23949,7 +23952,7 @@
       <c r="CO107" s="9"/>
     </row>
     <row r="108" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B108" s="157"/>
+      <c r="B108" s="187"/>
       <c r="C108" s="48" t="s">
         <v>579</v>
       </c>
@@ -24047,7 +24050,7 @@
       <c r="CO108" s="9"/>
     </row>
     <row r="109" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B109" s="158"/>
+      <c r="B109" s="188"/>
       <c r="C109" s="49" t="s">
         <v>580</v>
       </c>
@@ -24145,13 +24148,13 @@
       <c r="CO109" s="9"/>
     </row>
     <row r="110" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="156" t="s">
+      <c r="B110" s="186" t="s">
         <v>581</v>
       </c>
-      <c r="C110" s="129" t="s">
+      <c r="C110" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D110" s="160"/>
+      <c r="D110" s="175"/>
       <c r="E110" s="13"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
@@ -24253,11 +24256,11 @@
       <c r="CO110" s="13"/>
     </row>
     <row r="111" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="157"/>
-      <c r="C111" s="129" t="s">
+      <c r="B111" s="187"/>
+      <c r="C111" s="135" t="s">
         <v>582</v>
       </c>
-      <c r="D111" s="160"/>
+      <c r="D111" s="175"/>
       <c r="E111" s="13"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
@@ -24351,11 +24354,11 @@
       <c r="CO111" s="13"/>
     </row>
     <row r="112" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="157"/>
-      <c r="C112" s="129" t="s">
+      <c r="B112" s="187"/>
+      <c r="C112" s="135" t="s">
         <v>583</v>
       </c>
-      <c r="D112" s="160"/>
+      <c r="D112" s="175"/>
       <c r="E112" s="13"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -24449,11 +24452,11 @@
       <c r="CO112" s="13"/>
     </row>
     <row r="113" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="157"/>
-      <c r="C113" s="129" t="s">
+      <c r="B113" s="187"/>
+      <c r="C113" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="160"/>
+      <c r="D113" s="175"/>
       <c r="E113" s="13"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -24547,11 +24550,11 @@
       <c r="CO113" s="13"/>
     </row>
     <row r="114" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="157"/>
-      <c r="C114" s="129" t="s">
+      <c r="B114" s="187"/>
+      <c r="C114" s="135" t="s">
         <v>474</v>
       </c>
-      <c r="D114" s="160"/>
+      <c r="D114" s="175"/>
       <c r="E114" s="13"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -24645,11 +24648,11 @@
       <c r="CO114" s="13"/>
     </row>
     <row r="115" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="157"/>
-      <c r="C115" s="129" t="s">
+      <c r="B115" s="187"/>
+      <c r="C115" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="D115" s="160"/>
+      <c r="D115" s="175"/>
       <c r="E115" s="13"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -24741,11 +24744,11 @@
       <c r="CO115" s="13"/>
     </row>
     <row r="116" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="157"/>
-      <c r="C116" s="129" t="s">
+      <c r="B116" s="187"/>
+      <c r="C116" s="135" t="s">
         <v>476</v>
       </c>
-      <c r="D116" s="160"/>
+      <c r="D116" s="175"/>
       <c r="E116" s="13"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
@@ -24841,8 +24844,8 @@
       <c r="CO116" s="13"/>
     </row>
     <row r="117" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="157"/>
-      <c r="C117" s="122" t="s">
+      <c r="B117" s="187"/>
+      <c r="C117" s="133" t="s">
         <v>478</v>
       </c>
       <c r="D117" s="43" t="s">
@@ -24941,8 +24944,8 @@
       <c r="CO117" s="13"/>
     </row>
     <row r="118" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="157"/>
-      <c r="C118" s="123"/>
+      <c r="B118" s="187"/>
+      <c r="C118" s="134"/>
       <c r="D118" s="43" t="s">
         <v>19</v>
       </c>
@@ -25039,8 +25042,8 @@
       <c r="CO118" s="13"/>
     </row>
     <row r="119" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="157"/>
-      <c r="C119" s="123"/>
+      <c r="B119" s="187"/>
+      <c r="C119" s="134"/>
       <c r="D119" s="43" t="s">
         <v>16</v>
       </c>
@@ -25137,8 +25140,8 @@
       <c r="CO119" s="13"/>
     </row>
     <row r="120" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="157"/>
-      <c r="C120" s="123"/>
+      <c r="B120" s="187"/>
+      <c r="C120" s="134"/>
       <c r="D120" s="43" t="s">
         <v>17</v>
       </c>
@@ -25235,7 +25238,7 @@
       <c r="CO120" s="13"/>
     </row>
     <row r="121" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="157"/>
+      <c r="B121" s="187"/>
       <c r="C121" s="143"/>
       <c r="D121" s="43" t="s">
         <v>18</v>
@@ -25333,8 +25336,8 @@
       <c r="CO121" s="13"/>
     </row>
     <row r="122" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="157"/>
-      <c r="C122" s="122" t="s">
+      <c r="B122" s="187"/>
+      <c r="C122" s="133" t="s">
         <v>480</v>
       </c>
       <c r="D122" s="43" t="s">
@@ -25433,8 +25436,8 @@
       <c r="CO122" s="13"/>
     </row>
     <row r="123" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="157"/>
-      <c r="C123" s="123"/>
+      <c r="B123" s="187"/>
+      <c r="C123" s="134"/>
       <c r="D123" s="43" t="s">
         <v>19</v>
       </c>
@@ -25531,8 +25534,8 @@
       <c r="CO123" s="13"/>
     </row>
     <row r="124" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="157"/>
-      <c r="C124" s="123"/>
+      <c r="B124" s="187"/>
+      <c r="C124" s="134"/>
       <c r="D124" s="43" t="s">
         <v>16</v>
       </c>
@@ -25629,8 +25632,8 @@
       <c r="CO124" s="13"/>
     </row>
     <row r="125" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="157"/>
-      <c r="C125" s="123"/>
+      <c r="B125" s="187"/>
+      <c r="C125" s="134"/>
       <c r="D125" s="43" t="s">
         <v>17</v>
       </c>
@@ -25727,7 +25730,7 @@
       <c r="CO125" s="13"/>
     </row>
     <row r="126" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="157"/>
+      <c r="B126" s="187"/>
       <c r="C126" s="143"/>
       <c r="D126" s="43" t="s">
         <v>92</v>
@@ -25825,11 +25828,11 @@
       <c r="CO126" s="13"/>
     </row>
     <row r="127" spans="2:93" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="157"/>
-      <c r="C127" s="114" t="s">
+      <c r="B127" s="187"/>
+      <c r="C127" s="153" t="s">
         <v>584</v>
       </c>
-      <c r="D127" s="165"/>
+      <c r="D127" s="182"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
@@ -25925,11 +25928,11 @@
       <c r="CO127" s="9"/>
     </row>
     <row r="128" spans="2:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="158"/>
-      <c r="C128" s="166" t="s">
+      <c r="B128" s="188"/>
+      <c r="C128" s="191" t="s">
         <v>585</v>
       </c>
-      <c r="D128" s="167"/>
+      <c r="D128" s="192"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
@@ -26023,13 +26026,13 @@
       <c r="CO128" s="9"/>
     </row>
     <row r="129" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="156" t="s">
+      <c r="B129" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="C129" s="129" t="s">
+      <c r="C129" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="D129" s="160"/>
+      <c r="D129" s="175"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
@@ -26121,11 +26124,11 @@
       <c r="CO129" s="9"/>
     </row>
     <row r="130" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="157"/>
-      <c r="C130" s="129" t="s">
+      <c r="B130" s="187"/>
+      <c r="C130" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D130" s="160"/>
+      <c r="D130" s="175"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
@@ -26217,11 +26220,11 @@
       <c r="CO130" s="9"/>
     </row>
     <row r="131" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="157"/>
-      <c r="C131" s="129" t="s">
+      <c r="B131" s="187"/>
+      <c r="C131" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="D131" s="160"/>
+      <c r="D131" s="175"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -26313,11 +26316,11 @@
       <c r="CO131" s="9"/>
     </row>
     <row r="132" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="157"/>
-      <c r="C132" s="129" t="s">
+      <c r="B132" s="187"/>
+      <c r="C132" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="D132" s="160"/>
+      <c r="D132" s="175"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
@@ -26409,11 +26412,11 @@
       <c r="CO132" s="9"/>
     </row>
     <row r="133" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="157"/>
-      <c r="C133" s="129" t="s">
+      <c r="B133" s="187"/>
+      <c r="C133" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="D133" s="160"/>
+      <c r="D133" s="175"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
@@ -26505,11 +26508,11 @@
       <c r="CO133" s="9"/>
     </row>
     <row r="134" spans="2:93" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="157"/>
-      <c r="C134" s="129" t="s">
+      <c r="B134" s="187"/>
+      <c r="C134" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="D134" s="160"/>
+      <c r="D134" s="175"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
@@ -26601,11 +26604,11 @@
       <c r="CO134" s="9"/>
     </row>
     <row r="135" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B135" s="157"/>
-      <c r="C135" s="129" t="s">
+      <c r="B135" s="187"/>
+      <c r="C135" s="135" t="s">
         <v>586</v>
       </c>
-      <c r="D135" s="160"/>
+      <c r="D135" s="175"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
@@ -26699,11 +26702,11 @@
       <c r="CO135" s="9"/>
     </row>
     <row r="136" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="157"/>
-      <c r="C136" s="129" t="s">
+      <c r="B136" s="187"/>
+      <c r="C136" s="135" t="s">
         <v>587</v>
       </c>
-      <c r="D136" s="160"/>
+      <c r="D136" s="175"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
@@ -26797,11 +26800,11 @@
       <c r="CO136" s="9"/>
     </row>
     <row r="137" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="157"/>
-      <c r="C137" s="129" t="s">
+      <c r="B137" s="187"/>
+      <c r="C137" s="135" t="s">
         <v>588</v>
       </c>
-      <c r="D137" s="160"/>
+      <c r="D137" s="175"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
@@ -26895,11 +26898,11 @@
       <c r="CO137" s="9"/>
     </row>
     <row r="138" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B138" s="157"/>
-      <c r="C138" s="129" t="s">
+      <c r="B138" s="187"/>
+      <c r="C138" s="135" t="s">
         <v>589</v>
       </c>
-      <c r="D138" s="160"/>
+      <c r="D138" s="175"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
@@ -26993,11 +26996,11 @@
       <c r="CO138" s="9"/>
     </row>
     <row r="139" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="157"/>
-      <c r="C139" s="129" t="s">
+      <c r="B139" s="187"/>
+      <c r="C139" s="135" t="s">
         <v>590</v>
       </c>
-      <c r="D139" s="160"/>
+      <c r="D139" s="175"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
@@ -27091,11 +27094,11 @@
       <c r="CO139" s="9"/>
     </row>
     <row r="140" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B140" s="157"/>
-      <c r="C140" s="129" t="s">
+      <c r="B140" s="187"/>
+      <c r="C140" s="135" t="s">
         <v>591</v>
       </c>
-      <c r="D140" s="160"/>
+      <c r="D140" s="175"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
@@ -27195,11 +27198,11 @@
       <c r="CO140" s="9"/>
     </row>
     <row r="141" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B141" s="157"/>
-      <c r="C141" s="129" t="s">
+      <c r="B141" s="187"/>
+      <c r="C141" s="135" t="s">
         <v>592</v>
       </c>
-      <c r="D141" s="160"/>
+      <c r="D141" s="175"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
@@ -27293,11 +27296,11 @@
       <c r="CO141" s="9"/>
     </row>
     <row r="142" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="157"/>
-      <c r="C142" s="129" t="s">
+      <c r="B142" s="187"/>
+      <c r="C142" s="135" t="s">
         <v>593</v>
       </c>
-      <c r="D142" s="160"/>
+      <c r="D142" s="175"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
@@ -27391,11 +27394,11 @@
       <c r="CO142" s="9"/>
     </row>
     <row r="143" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="157"/>
-      <c r="C143" s="129" t="s">
+      <c r="B143" s="187"/>
+      <c r="C143" s="135" t="s">
         <v>594</v>
       </c>
-      <c r="D143" s="160"/>
+      <c r="D143" s="175"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
@@ -27489,11 +27492,11 @@
       <c r="CO143" s="9"/>
     </row>
     <row r="144" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="157"/>
-      <c r="C144" s="129" t="s">
+      <c r="B144" s="187"/>
+      <c r="C144" s="135" t="s">
         <v>595</v>
       </c>
-      <c r="D144" s="160"/>
+      <c r="D144" s="175"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -27587,11 +27590,11 @@
       <c r="CO144" s="9"/>
     </row>
     <row r="145" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="157"/>
-      <c r="C145" s="129" t="s">
+      <c r="B145" s="187"/>
+      <c r="C145" s="135" t="s">
         <v>596</v>
       </c>
-      <c r="D145" s="160"/>
+      <c r="D145" s="175"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
@@ -27685,11 +27688,11 @@
       <c r="CO145" s="9"/>
     </row>
     <row r="146" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B146" s="157"/>
-      <c r="C146" s="129" t="s">
+      <c r="B146" s="187"/>
+      <c r="C146" s="135" t="s">
         <v>597</v>
       </c>
-      <c r="D146" s="160"/>
+      <c r="D146" s="175"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
@@ -27783,11 +27786,11 @@
       <c r="CO146" s="9"/>
     </row>
     <row r="147" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="157"/>
-      <c r="C147" s="129" t="s">
+      <c r="B147" s="187"/>
+      <c r="C147" s="135" t="s">
         <v>598</v>
       </c>
-      <c r="D147" s="160"/>
+      <c r="D147" s="175"/>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
@@ -27881,11 +27884,11 @@
       <c r="CO147" s="9"/>
     </row>
     <row r="148" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B148" s="157"/>
-      <c r="C148" s="129" t="s">
+      <c r="B148" s="187"/>
+      <c r="C148" s="135" t="s">
         <v>599</v>
       </c>
-      <c r="D148" s="160"/>
+      <c r="D148" s="175"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
@@ -27979,11 +27982,11 @@
       <c r="CO148" s="9"/>
     </row>
     <row r="149" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B149" s="157"/>
-      <c r="C149" s="129" t="s">
+      <c r="B149" s="187"/>
+      <c r="C149" s="135" t="s">
         <v>600</v>
       </c>
-      <c r="D149" s="160"/>
+      <c r="D149" s="175"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
@@ -28077,11 +28080,11 @@
       <c r="CO149" s="9"/>
     </row>
     <row r="150" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B150" s="157"/>
-      <c r="C150" s="129" t="s">
+      <c r="B150" s="187"/>
+      <c r="C150" s="135" t="s">
         <v>601</v>
       </c>
-      <c r="D150" s="160"/>
+      <c r="D150" s="175"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
@@ -28175,11 +28178,11 @@
       <c r="CO150" s="9"/>
     </row>
     <row r="151" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B151" s="157"/>
-      <c r="C151" s="129" t="s">
+      <c r="B151" s="187"/>
+      <c r="C151" s="135" t="s">
         <v>602</v>
       </c>
-      <c r="D151" s="160"/>
+      <c r="D151" s="175"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
@@ -28273,11 +28276,11 @@
       <c r="CO151" s="9"/>
     </row>
     <row r="152" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B152" s="157"/>
-      <c r="C152" s="129" t="s">
+      <c r="B152" s="187"/>
+      <c r="C152" s="135" t="s">
         <v>603</v>
       </c>
-      <c r="D152" s="160"/>
+      <c r="D152" s="175"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
@@ -28371,11 +28374,11 @@
       <c r="CO152" s="9"/>
     </row>
     <row r="153" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B153" s="157"/>
-      <c r="C153" s="129" t="s">
+      <c r="B153" s="187"/>
+      <c r="C153" s="135" t="s">
         <v>599</v>
       </c>
-      <c r="D153" s="160"/>
+      <c r="D153" s="175"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
@@ -28469,11 +28472,11 @@
       <c r="CO153" s="9"/>
     </row>
     <row r="154" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B154" s="157"/>
-      <c r="C154" s="129" t="s">
+      <c r="B154" s="187"/>
+      <c r="C154" s="135" t="s">
         <v>600</v>
       </c>
-      <c r="D154" s="160"/>
+      <c r="D154" s="175"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
@@ -28567,11 +28570,11 @@
       <c r="CO154" s="9"/>
     </row>
     <row r="155" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B155" s="157"/>
-      <c r="C155" s="129" t="s">
+      <c r="B155" s="187"/>
+      <c r="C155" s="135" t="s">
         <v>604</v>
       </c>
-      <c r="D155" s="160"/>
+      <c r="D155" s="175"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -28665,11 +28668,11 @@
       <c r="CO155" s="9"/>
     </row>
     <row r="156" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B156" s="157"/>
-      <c r="C156" s="129" t="s">
+      <c r="B156" s="187"/>
+      <c r="C156" s="135" t="s">
         <v>605</v>
       </c>
-      <c r="D156" s="160"/>
+      <c r="D156" s="175"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
@@ -28763,11 +28766,11 @@
       <c r="CO156" s="9"/>
     </row>
     <row r="157" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="157"/>
-      <c r="C157" s="129" t="s">
+      <c r="B157" s="187"/>
+      <c r="C157" s="135" t="s">
         <v>606</v>
       </c>
-      <c r="D157" s="160"/>
+      <c r="D157" s="175"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
@@ -28861,11 +28864,11 @@
       <c r="CO157" s="9"/>
     </row>
     <row r="158" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B158" s="157"/>
-      <c r="C158" s="129" t="s">
+      <c r="B158" s="187"/>
+      <c r="C158" s="135" t="s">
         <v>599</v>
       </c>
-      <c r="D158" s="160"/>
+      <c r="D158" s="175"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
@@ -28959,11 +28962,11 @@
       <c r="CO158" s="9"/>
     </row>
     <row r="159" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B159" s="157"/>
-      <c r="C159" s="129" t="s">
+      <c r="B159" s="187"/>
+      <c r="C159" s="135" t="s">
         <v>600</v>
       </c>
-      <c r="D159" s="160"/>
+      <c r="D159" s="175"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
@@ -29057,11 +29060,11 @@
       <c r="CO159" s="9"/>
     </row>
     <row r="160" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B160" s="157"/>
-      <c r="C160" s="129" t="s">
+      <c r="B160" s="187"/>
+      <c r="C160" s="135" t="s">
         <v>604</v>
       </c>
-      <c r="D160" s="160"/>
+      <c r="D160" s="175"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
@@ -29155,11 +29158,11 @@
       <c r="CO160" s="9"/>
     </row>
     <row r="161" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B161" s="157"/>
-      <c r="C161" s="129" t="s">
+      <c r="B161" s="187"/>
+      <c r="C161" s="135" t="s">
         <v>607</v>
       </c>
-      <c r="D161" s="160"/>
+      <c r="D161" s="175"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
@@ -29251,11 +29254,11 @@
       <c r="CO161" s="9"/>
     </row>
     <row r="162" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B162" s="157"/>
-      <c r="C162" s="129" t="s">
+      <c r="B162" s="187"/>
+      <c r="C162" s="135" t="s">
         <v>608</v>
       </c>
-      <c r="D162" s="160"/>
+      <c r="D162" s="175"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -29349,11 +29352,11 @@
       <c r="CO162" s="9"/>
     </row>
     <row r="163" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B163" s="157"/>
-      <c r="C163" s="129" t="s">
+      <c r="B163" s="187"/>
+      <c r="C163" s="135" t="s">
         <v>610</v>
       </c>
-      <c r="D163" s="160"/>
+      <c r="D163" s="175"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
@@ -29447,11 +29450,11 @@
       <c r="CO163" s="9"/>
     </row>
     <row r="164" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B164" s="157"/>
-      <c r="C164" s="129" t="s">
+      <c r="B164" s="187"/>
+      <c r="C164" s="135" t="s">
         <v>611</v>
       </c>
-      <c r="D164" s="160"/>
+      <c r="D164" s="175"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
@@ -29545,11 +29548,11 @@
       <c r="CO164" s="9"/>
     </row>
     <row r="165" spans="2:93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="157"/>
-      <c r="C165" s="129" t="s">
+      <c r="B165" s="187"/>
+      <c r="C165" s="135" t="s">
         <v>612</v>
       </c>
-      <c r="D165" s="160"/>
+      <c r="D165" s="175"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
@@ -29643,11 +29646,11 @@
       <c r="CO165" s="9"/>
     </row>
     <row r="166" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B166" s="157"/>
-      <c r="C166" s="129" t="s">
+      <c r="B166" s="187"/>
+      <c r="C166" s="135" t="s">
         <v>613</v>
       </c>
-      <c r="D166" s="160"/>
+      <c r="D166" s="175"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
@@ -29741,11 +29744,11 @@
       <c r="CO166" s="9"/>
     </row>
     <row r="167" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B167" s="158"/>
-      <c r="C167" s="129" t="s">
+      <c r="B167" s="188"/>
+      <c r="C167" s="135" t="s">
         <v>614</v>
       </c>
-      <c r="D167" s="160"/>
+      <c r="D167" s="175"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
@@ -29839,13 +29842,13 @@
       <c r="CO167" s="9"/>
     </row>
     <row r="168" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B168" s="161" t="s">
+      <c r="B168" s="193" t="s">
         <v>615</v>
       </c>
-      <c r="C168" s="114" t="s">
+      <c r="C168" s="153" t="s">
         <v>616</v>
       </c>
-      <c r="D168" s="159"/>
+      <c r="D168" s="180"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -29939,11 +29942,11 @@
       <c r="CO168" s="9"/>
     </row>
     <row r="169" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B169" s="162"/>
-      <c r="C169" s="114" t="s">
+      <c r="B169" s="194"/>
+      <c r="C169" s="153" t="s">
         <v>617</v>
       </c>
-      <c r="D169" s="159"/>
+      <c r="D169" s="180"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -30037,7 +30040,7 @@
       <c r="CO169" s="9"/>
     </row>
     <row r="170" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B170" s="156"/>
+      <c r="B170" s="186"/>
       <c r="C170" s="12" t="s">
         <v>618</v>
       </c>
@@ -30135,7 +30138,7 @@
       <c r="CO170" s="9"/>
     </row>
     <row r="171" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B171" s="157"/>
+      <c r="B171" s="187"/>
       <c r="C171" s="48" t="s">
         <v>619</v>
       </c>
@@ -30233,7 +30236,7 @@
       <c r="CO171" s="9"/>
     </row>
     <row r="172" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B172" s="157"/>
+      <c r="B172" s="187"/>
       <c r="C172" s="48" t="s">
         <v>620</v>
       </c>
@@ -30331,7 +30334,7 @@
       <c r="CO172" s="9"/>
     </row>
     <row r="173" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B173" s="157"/>
+      <c r="B173" s="187"/>
       <c r="C173" s="48" t="s">
         <v>621</v>
       </c>
@@ -30429,7 +30432,7 @@
       <c r="CO173" s="9"/>
     </row>
     <row r="174" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B174" s="157"/>
+      <c r="B174" s="187"/>
       <c r="C174" s="48" t="s">
         <v>622</v>
       </c>
@@ -30527,7 +30530,7 @@
       <c r="CO174" s="9"/>
     </row>
     <row r="175" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B175" s="157"/>
+      <c r="B175" s="187"/>
       <c r="C175" s="48" t="s">
         <v>623</v>
       </c>
@@ -30625,7 +30628,7 @@
       <c r="CO175" s="9"/>
     </row>
     <row r="176" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B176" s="157"/>
+      <c r="B176" s="187"/>
       <c r="C176" s="48" t="s">
         <v>624</v>
       </c>
@@ -30723,7 +30726,7 @@
       <c r="CO176" s="9"/>
     </row>
     <row r="177" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B177" s="157"/>
+      <c r="B177" s="187"/>
       <c r="C177" s="48" t="s">
         <v>625</v>
       </c>
@@ -30821,7 +30824,7 @@
       <c r="CO177" s="9"/>
     </row>
     <row r="178" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B178" s="157"/>
+      <c r="B178" s="187"/>
       <c r="C178" s="48" t="s">
         <v>626</v>
       </c>
@@ -30919,7 +30922,7 @@
       <c r="CO178" s="9"/>
     </row>
     <row r="179" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B179" s="157"/>
+      <c r="B179" s="187"/>
       <c r="C179" s="48" t="s">
         <v>627</v>
       </c>
@@ -31017,7 +31020,7 @@
       <c r="CO179" s="9"/>
     </row>
     <row r="180" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B180" s="157"/>
+      <c r="B180" s="187"/>
       <c r="C180" s="48" t="s">
         <v>628</v>
       </c>
@@ -31115,7 +31118,7 @@
       <c r="CO180" s="9"/>
     </row>
     <row r="181" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B181" s="157"/>
+      <c r="B181" s="187"/>
       <c r="C181" s="12" t="s">
         <v>629</v>
       </c>
@@ -31213,11 +31216,11 @@
       <c r="CO181" s="9"/>
     </row>
     <row r="182" spans="2:93" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="157"/>
-      <c r="C182" s="114" t="s">
+      <c r="B182" s="187"/>
+      <c r="C182" s="153" t="s">
         <v>630</v>
       </c>
-      <c r="D182" s="159"/>
+      <c r="D182" s="180"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
@@ -31309,11 +31312,11 @@
       <c r="CO182" s="9"/>
     </row>
     <row r="183" spans="2:93" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="158"/>
-      <c r="C183" s="114" t="s">
+      <c r="B183" s="188"/>
+      <c r="C183" s="153" t="s">
         <v>631</v>
       </c>
-      <c r="D183" s="159"/>
+      <c r="D183" s="180"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
@@ -31413,6 +31416,122 @@
     <row r="184" spans="2:93" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="B170:B183"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B129:B167"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="B110:B128"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="B71:B109"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="CL3:CO3"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B10:B31"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="AD3:AS3"/>
+    <mergeCell ref="AT3:BH3"/>
+    <mergeCell ref="BI3:BO3"/>
+    <mergeCell ref="BP3:BU3"/>
+    <mergeCell ref="BV3:CA3"/>
+    <mergeCell ref="CB3:CK3"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C82:D82"/>
@@ -31437,122 +31556,6 @@
     <mergeCell ref="B39:B50"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="CL3:CO3"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B10:B31"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="AD3:AS3"/>
-    <mergeCell ref="AT3:BH3"/>
-    <mergeCell ref="BI3:BO3"/>
-    <mergeCell ref="BP3:BU3"/>
-    <mergeCell ref="BV3:CA3"/>
-    <mergeCell ref="CB3:CK3"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B110:B128"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="B71:B109"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B129:B167"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="B170:B183"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
